--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF45CC-EBAC-47C3-AF9C-17DC84CF330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G559"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -436,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G2">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G3">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -482,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G4">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -528,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -551,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G7">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -574,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G8">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -597,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G9">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -620,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G10">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -643,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G11">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -666,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G12">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -689,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G13">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -712,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G14">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -781,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G17">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -804,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G18">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -833,7 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -850,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G20">
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -873,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G21">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -896,13 +914,13 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G22">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -925,7 +943,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -965,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G25">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -988,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G26">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1014,10 +1032,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G27">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1060,10 +1078,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G29">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1080,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G30">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1103,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G31">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1129,10 +1147,10 @@
         <v>0.45</v>
       </c>
       <c r="G32">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1149,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G33">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1178,7 +1196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1218,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G36">
         <v>0.45</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1241,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G37">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1264,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G38">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1310,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G40">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1336,10 +1354,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G41">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G42">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1379,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G43">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1402,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G44">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1425,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G45">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1471,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G47">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1497,10 +1515,10 @@
         <v>0.45</v>
       </c>
       <c r="G48">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1517,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G49">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1540,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G50">
         <v>0.45</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1563,13 +1581,13 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G51">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1586,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G52">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1609,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G53">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1632,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G54">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1655,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G55">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1678,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G56">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1704,10 +1722,10 @@
         <v>0.45</v>
       </c>
       <c r="G57">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1727,10 +1745,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G58">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1747,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G59">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1773,10 +1791,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G60">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1793,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G61">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1816,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G62">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1862,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G64">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1885,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G65">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1908,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G66">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1931,13 +1949,13 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G67">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2023,13 +2041,13 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G71">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2046,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G72">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2092,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G74">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2138,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G76">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2164,10 +2182,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G77">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2184,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G78">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2230,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G80">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2276,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G82">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2325,10 +2343,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G84">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2345,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G85">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2368,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G86">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2391,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G87">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2414,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G88">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2437,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G89">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2486,10 +2504,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G91">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2509,10 +2527,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G92">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2532,10 +2550,10 @@
         <v>0.45</v>
       </c>
       <c r="G93">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2575,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G95">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2621,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G97">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2690,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G100">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2736,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G102">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2759,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G103">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2782,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G104">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2805,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G105">
         <v>0.45</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2831,10 +2849,10 @@
         <v>0.45</v>
       </c>
       <c r="G106">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2851,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G107">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2877,10 +2895,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G108">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2897,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G109">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2920,13 +2938,13 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G110">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2943,13 +2961,13 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G111">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2969,10 +2987,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G112">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2989,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G113">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3012,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G114">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3058,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G116">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G117">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3104,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G118">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G119">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3173,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G121">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3196,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G122">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G123">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3288,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G126">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3311,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G127">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3360,10 +3378,10 @@
         <v>0.45</v>
       </c>
       <c r="G129">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3380,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G130">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3403,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G131">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3472,13 +3490,13 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G134">
         <v>0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3498,10 +3516,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G135">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3541,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G137">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3564,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G138">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3587,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G139">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3633,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G141">
         <v>0.45</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3656,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G142">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G144">
         <v>0.45</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G145">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3748,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G146">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3771,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G147">
         <v>0.45</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3794,13 +3812,13 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G148">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3840,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G150">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3863,13 +3881,13 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G151">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3886,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>0.7166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G152">
-        <v>0.2833333333333333</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3909,13 +3927,13 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G153">
         <v>0.45</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3932,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G154">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G155">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4001,13 +4019,13 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G157">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4024,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G158">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4047,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G159">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4070,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G160">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4093,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G161">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4139,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G163">
         <v>0.45</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4162,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G164">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4188,10 +4206,10 @@
         <v>0.45</v>
       </c>
       <c r="G165">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4208,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G166">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4231,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G167">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4254,13 +4272,13 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G168">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4300,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G170">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4323,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G171">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G174">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G176">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4464,10 +4482,10 @@
         <v>0.45</v>
       </c>
       <c r="G177">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4484,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G178">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4507,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G179">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4553,13 +4571,13 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G181">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4576,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G182">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4599,13 +4617,13 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G183">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4622,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G184">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4648,10 +4666,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G185">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4671,10 +4689,10 @@
         <v>0.45</v>
       </c>
       <c r="G186">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4691,13 +4709,13 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G187">
         <v>0.45</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4714,13 +4732,13 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G188">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4737,13 +4755,13 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G189">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4760,13 +4778,13 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G190">
         <v>0.45</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4806,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G192">
         <v>0.45</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4829,13 +4847,13 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G193">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4875,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G195">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G196">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G197">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4944,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0.7833333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="G198">
         <v>0.2166666666666667</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4967,13 +4985,13 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G199">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G201">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5059,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G203">
         <v>0.45</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G204">
         <v>0.45</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5105,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G205">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5128,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G206">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5151,13 +5169,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G207">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5197,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G209">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5220,13 +5238,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G210">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5266,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G212">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5358,13 +5376,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G216">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5384,10 +5402,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G217">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5404,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G218">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5430,10 +5448,10 @@
         <v>0.45</v>
       </c>
       <c r="G219">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5450,13 +5468,13 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G220">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5473,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G221">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5499,10 +5517,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G222">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5519,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G223">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5542,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G224">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5565,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G225">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5588,13 +5606,13 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G226">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5611,13 +5629,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G227">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5634,13 +5652,13 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G228">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5657,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G229">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5703,13 +5721,13 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G231">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5749,13 +5767,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G233">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5772,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G234">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5795,13 +5813,13 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G235">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5818,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G236">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5841,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0.2333333333333333</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G237">
-        <v>0.7666666666666667</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5864,13 +5882,13 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G238">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5887,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G239">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5979,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G243">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6002,13 +6020,13 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G244">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6025,13 +6043,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G245">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6048,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G246">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6077,7 +6095,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6094,13 +6112,13 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G248">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6120,10 +6138,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G249">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6140,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G250">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6163,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G251">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G253">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6232,13 +6250,13 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G254">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6258,10 +6276,10 @@
         <v>0.45</v>
       </c>
       <c r="G255">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="F256">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G256">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6301,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G257">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6347,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G259">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6373,10 +6391,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G260">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6393,13 +6411,13 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G261">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6531,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G267">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6557,10 +6575,10 @@
         <v>0.45</v>
       </c>
       <c r="G268">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6577,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G269">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6606,7 +6624,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6623,13 +6641,13 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G271">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6646,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>0.7833333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="G272">
         <v>0.2166666666666667</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6669,13 +6687,13 @@
         <v>1</v>
       </c>
       <c r="F273">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G273">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6692,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G274">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6715,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>0.08333333333333331</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="G275">
-        <v>0.9166666666666665</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>0.91666666666666652</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6738,13 +6756,13 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G276">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6761,13 +6779,13 @@
         <v>1</v>
       </c>
       <c r="F277">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G277">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6787,10 +6805,10 @@
         <v>0.45</v>
       </c>
       <c r="G278">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6807,13 +6825,13 @@
         <v>0</v>
       </c>
       <c r="F279">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G279">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6830,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="F280">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G280">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6856,10 +6874,10 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="G281">
-        <v>0.7833333333333333</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6876,13 +6894,13 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G282">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>1</v>
       </c>
       <c r="F283">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G283">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6922,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>0.7166666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G284">
-        <v>0.2833333333333333</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6945,13 +6963,13 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G285">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6968,13 +6986,13 @@
         <v>1</v>
       </c>
       <c r="F286">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G286">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6991,13 +7009,13 @@
         <v>1</v>
       </c>
       <c r="F287">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G287">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7014,13 +7032,13 @@
         <v>1</v>
       </c>
       <c r="F288">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G288">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7037,13 +7055,13 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G289">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7063,10 +7081,10 @@
         <v>0.45</v>
       </c>
       <c r="G290">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7083,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G291">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7106,13 +7124,13 @@
         <v>1</v>
       </c>
       <c r="F292">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G292">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7129,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G293">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7152,13 +7170,13 @@
         <v>0</v>
       </c>
       <c r="F294">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G294">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7175,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="F295">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G295">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G296">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7221,13 +7239,13 @@
         <v>1</v>
       </c>
       <c r="F297">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G297">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7244,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="F298">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G298">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7267,13 +7285,13 @@
         <v>1</v>
       </c>
       <c r="F299">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G299">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7290,13 +7308,13 @@
         <v>1</v>
       </c>
       <c r="F300">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G300">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7336,13 +7354,13 @@
         <v>0</v>
       </c>
       <c r="F302">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G302">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7382,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="F304">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G304">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7428,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="F306">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G306">
         <v>0.45</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7451,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G307">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7474,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G308">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7497,13 +7515,13 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G309">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7543,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G311">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7566,13 +7584,13 @@
         <v>1</v>
       </c>
       <c r="F312">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G312">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7589,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G313">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7612,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G314">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7658,13 +7676,13 @@
         <v>1</v>
       </c>
       <c r="F316">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G316">
         <v>0.45</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7750,13 +7768,13 @@
         <v>1</v>
       </c>
       <c r="F320">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G320">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7776,10 +7794,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G321">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7802,7 +7820,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7819,13 +7837,13 @@
         <v>0</v>
       </c>
       <c r="F323">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G323">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7842,13 +7860,13 @@
         <v>1</v>
       </c>
       <c r="F324">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G324">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7888,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G326">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7911,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G327">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7934,13 +7952,13 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G328">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7960,10 +7978,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G329">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7983,10 +8001,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G330">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8003,13 +8021,13 @@
         <v>0</v>
       </c>
       <c r="F331">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G331">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8026,13 +8044,13 @@
         <v>1</v>
       </c>
       <c r="F332">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G332">
         <v>0.45</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8049,13 +8067,13 @@
         <v>1</v>
       </c>
       <c r="F333">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G333">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>0</v>
       </c>
       <c r="F334">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G334">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8095,13 +8113,13 @@
         <v>1</v>
       </c>
       <c r="F335">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G335">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8118,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="F336">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G336">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8144,10 +8162,10 @@
         <v>0.45</v>
       </c>
       <c r="G337">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8164,13 +8182,13 @@
         <v>1</v>
       </c>
       <c r="F338">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G338">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>1</v>
       </c>
       <c r="F339">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G339">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8213,10 +8231,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G340">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8279,13 +8297,13 @@
         <v>1</v>
       </c>
       <c r="F343">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G343">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8302,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="F344">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G344">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8331,7 +8349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>1</v>
       </c>
       <c r="F346">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G346">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8371,13 +8389,13 @@
         <v>0</v>
       </c>
       <c r="F347">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G347">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8394,13 +8412,13 @@
         <v>1</v>
       </c>
       <c r="F348">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G348">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8420,10 +8438,10 @@
         <v>0.45</v>
       </c>
       <c r="G349">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0.1833333333333333</v>
+        <v>0.18333333333333329</v>
       </c>
       <c r="G350">
-        <v>0.8166666666666668</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>0.81666666666666676</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8463,13 +8481,13 @@
         <v>0</v>
       </c>
       <c r="F351">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G351">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8492,7 +8510,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8509,13 +8527,13 @@
         <v>1</v>
       </c>
       <c r="F353">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G353">
         <v>0.45</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8535,10 +8553,10 @@
         <v>0.45</v>
       </c>
       <c r="G354">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8558,10 +8576,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G355">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8578,13 +8596,13 @@
         <v>1</v>
       </c>
       <c r="F356">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G356">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8601,13 +8619,13 @@
         <v>1</v>
       </c>
       <c r="F357">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G357">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8624,13 +8642,13 @@
         <v>0</v>
       </c>
       <c r="F358">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G358">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8716,13 +8734,13 @@
         <v>0</v>
       </c>
       <c r="F362">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G362">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8739,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G363">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>1</v>
       </c>
       <c r="F364">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G364">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8785,13 +8803,13 @@
         <v>1</v>
       </c>
       <c r="F365">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G365">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8808,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="F366">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G366">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8831,13 +8849,13 @@
         <v>1</v>
       </c>
       <c r="F367">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G367">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8860,7 +8878,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8877,13 +8895,13 @@
         <v>1</v>
       </c>
       <c r="F369">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G369">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8900,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="F370">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G370">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8923,13 +8941,13 @@
         <v>1</v>
       </c>
       <c r="F371">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G371">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8946,13 +8964,13 @@
         <v>0</v>
       </c>
       <c r="F372">
-        <v>0.2333333333333333</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G372">
-        <v>0.7666666666666667</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8975,7 +8993,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8992,13 +9010,13 @@
         <v>1</v>
       </c>
       <c r="F374">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G374">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9015,13 +9033,13 @@
         <v>1</v>
       </c>
       <c r="F375">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G375">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9038,13 +9056,13 @@
         <v>1</v>
       </c>
       <c r="F376">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G376">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9061,13 +9079,13 @@
         <v>1</v>
       </c>
       <c r="F377">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G377">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9087,10 +9105,10 @@
         <v>0.45</v>
       </c>
       <c r="G378">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9136,7 +9154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9153,13 +9171,13 @@
         <v>1</v>
       </c>
       <c r="F381">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G381">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9176,13 +9194,13 @@
         <v>1</v>
       </c>
       <c r="F382">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G382">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9199,13 +9217,13 @@
         <v>0</v>
       </c>
       <c r="F383">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G383">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9222,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="F384">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G384">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9245,13 +9263,13 @@
         <v>1</v>
       </c>
       <c r="F385">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G385">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9274,7 +9292,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9314,13 +9332,13 @@
         <v>1</v>
       </c>
       <c r="F388">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G388">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9337,13 +9355,13 @@
         <v>1</v>
       </c>
       <c r="F389">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G389">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9360,13 +9378,13 @@
         <v>1</v>
       </c>
       <c r="F390">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G390">
         <v>0.45</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9389,7 +9407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9406,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="F392">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G392">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9429,13 +9447,13 @@
         <v>0</v>
       </c>
       <c r="F393">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G393">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9452,13 +9470,13 @@
         <v>0</v>
       </c>
       <c r="F394">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G394">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9498,13 +9516,13 @@
         <v>0</v>
       </c>
       <c r="F396">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G396">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9527,7 +9545,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9550,7 +9568,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9593,10 +9611,10 @@
         <v>0.45</v>
       </c>
       <c r="G400">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9616,10 +9634,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G401">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9659,13 +9677,13 @@
         <v>0</v>
       </c>
       <c r="F403">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G403">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9705,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="F405">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G405">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9728,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="F406">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G406">
         <v>0.45</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9751,13 +9769,13 @@
         <v>0</v>
       </c>
       <c r="F407">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G407">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9774,13 +9792,13 @@
         <v>0</v>
       </c>
       <c r="F408">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G408">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9797,13 +9815,13 @@
         <v>0</v>
       </c>
       <c r="F409">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G409">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9843,13 +9861,13 @@
         <v>1</v>
       </c>
       <c r="F411">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G411">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9866,13 +9884,13 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G412">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9889,13 +9907,13 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G413">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9912,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="F414">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G414">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9941,7 +9959,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9961,10 +9979,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G416">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9981,13 +9999,13 @@
         <v>1</v>
       </c>
       <c r="F417">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G417">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10004,13 +10022,13 @@
         <v>0</v>
       </c>
       <c r="F418">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G418">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10027,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G419">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10056,7 +10074,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10073,13 +10091,13 @@
         <v>1</v>
       </c>
       <c r="F421">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G421">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10096,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="F422">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G422">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10119,13 +10137,13 @@
         <v>1</v>
       </c>
       <c r="F423">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G423">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10142,13 +10160,13 @@
         <v>1</v>
       </c>
       <c r="F424">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G424">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10165,13 +10183,13 @@
         <v>1</v>
       </c>
       <c r="F425">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G425">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10188,13 +10206,13 @@
         <v>1</v>
       </c>
       <c r="F426">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G426">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10211,13 +10229,13 @@
         <v>0</v>
       </c>
       <c r="F427">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G427">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10257,13 +10275,13 @@
         <v>1</v>
       </c>
       <c r="F429">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G429">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10280,13 +10298,13 @@
         <v>1</v>
       </c>
       <c r="F430">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G430">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10309,7 +10327,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10326,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="F432">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G432">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10349,13 +10367,13 @@
         <v>0</v>
       </c>
       <c r="F433">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G433">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10372,13 +10390,13 @@
         <v>1</v>
       </c>
       <c r="F434">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G434">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10395,13 +10413,13 @@
         <v>0</v>
       </c>
       <c r="F435">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G435">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10418,13 +10436,13 @@
         <v>1</v>
       </c>
       <c r="F436">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G436">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10441,13 +10459,13 @@
         <v>1</v>
       </c>
       <c r="F437">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G437">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10464,13 +10482,13 @@
         <v>1</v>
       </c>
       <c r="F438">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G438">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10490,10 +10508,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G439">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10510,13 +10528,13 @@
         <v>0</v>
       </c>
       <c r="F440">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G440">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10533,13 +10551,13 @@
         <v>1</v>
       </c>
       <c r="F441">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G441">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10556,13 +10574,13 @@
         <v>0</v>
       </c>
       <c r="F442">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G442">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10605,10 +10623,10 @@
         <v>0.45</v>
       </c>
       <c r="G444">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10628,10 +10646,10 @@
         <v>0.45</v>
       </c>
       <c r="G445">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10648,13 +10666,13 @@
         <v>1</v>
       </c>
       <c r="F446">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G446">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10671,13 +10689,13 @@
         <v>0</v>
       </c>
       <c r="F447">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G447">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10694,13 +10712,13 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G448">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10717,13 +10735,13 @@
         <v>1</v>
       </c>
       <c r="F449">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G449">
         <v>0.45</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10740,13 +10758,13 @@
         <v>1</v>
       </c>
       <c r="F450">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G450">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10766,10 +10784,10 @@
         <v>0.45</v>
       </c>
       <c r="G451">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10786,13 +10804,13 @@
         <v>1</v>
       </c>
       <c r="F452">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G452">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10809,13 +10827,13 @@
         <v>1</v>
       </c>
       <c r="F453">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="G453">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10855,13 +10873,13 @@
         <v>0</v>
       </c>
       <c r="F455">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G455">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10878,13 +10896,13 @@
         <v>1</v>
       </c>
       <c r="F456">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G456">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10924,13 +10942,13 @@
         <v>0</v>
       </c>
       <c r="F458">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G458">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10947,13 +10965,13 @@
         <v>1</v>
       </c>
       <c r="F459">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G459">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10970,13 +10988,13 @@
         <v>0</v>
       </c>
       <c r="F460">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G460">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10993,13 +11011,13 @@
         <v>1</v>
       </c>
       <c r="F461">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G461">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11016,13 +11034,13 @@
         <v>1</v>
       </c>
       <c r="F462">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G462">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11039,13 +11057,13 @@
         <v>1</v>
       </c>
       <c r="F463">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G463">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11062,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="F464">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G464">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11108,13 +11126,13 @@
         <v>1</v>
       </c>
       <c r="F466">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G466">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11137,7 +11155,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11154,13 +11172,13 @@
         <v>0</v>
       </c>
       <c r="F468">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G468">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11177,13 +11195,13 @@
         <v>1</v>
       </c>
       <c r="F469">
-        <v>0.6833333333333332</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G469">
-        <v>0.3166666666666667</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
+        <v>0.31666666666666671</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11203,10 +11221,10 @@
         <v>0.45</v>
       </c>
       <c r="G470">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11223,13 +11241,13 @@
         <v>1</v>
       </c>
       <c r="F471">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G471">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11246,13 +11264,13 @@
         <v>1</v>
       </c>
       <c r="F472">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G472">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11269,13 +11287,13 @@
         <v>1</v>
       </c>
       <c r="F473">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G473">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11298,7 +11316,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11315,13 +11333,13 @@
         <v>1</v>
       </c>
       <c r="F475">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G475">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11344,7 +11362,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11361,13 +11379,13 @@
         <v>0</v>
       </c>
       <c r="F477">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G477">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11387,10 +11405,10 @@
         <v>0.45</v>
       </c>
       <c r="G478">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11407,13 +11425,13 @@
         <v>0</v>
       </c>
       <c r="F479">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G479">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11430,13 +11448,13 @@
         <v>1</v>
       </c>
       <c r="F480">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G480">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11456,10 +11474,10 @@
         <v>0.45</v>
       </c>
       <c r="G481">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11476,13 +11494,13 @@
         <v>1</v>
       </c>
       <c r="F482">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G482">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11499,13 +11517,13 @@
         <v>1</v>
       </c>
       <c r="F483">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G483">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11522,13 +11540,13 @@
         <v>0</v>
       </c>
       <c r="F484">
-        <v>0.2833333333333333</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G484">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11545,13 +11563,13 @@
         <v>1</v>
       </c>
       <c r="F485">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G485">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11568,13 +11586,13 @@
         <v>0</v>
       </c>
       <c r="F486">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G486">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11591,13 +11609,13 @@
         <v>0</v>
       </c>
       <c r="F487">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G487">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11614,13 +11632,13 @@
         <v>1</v>
       </c>
       <c r="F488">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G488">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11640,10 +11658,10 @@
         <v>0.45</v>
       </c>
       <c r="G489">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11666,7 +11684,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11683,13 +11701,13 @@
         <v>1</v>
       </c>
       <c r="F491">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G491">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11706,13 +11724,13 @@
         <v>0</v>
       </c>
       <c r="F492">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G492">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11735,7 +11753,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11752,13 +11770,13 @@
         <v>1</v>
       </c>
       <c r="F494">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G494">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11781,7 +11799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11798,13 +11816,13 @@
         <v>0</v>
       </c>
       <c r="F496">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G496">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11821,13 +11839,13 @@
         <v>1</v>
       </c>
       <c r="F497">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G497">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11844,13 +11862,13 @@
         <v>1</v>
       </c>
       <c r="F498">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G498">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11867,13 +11885,13 @@
         <v>0</v>
       </c>
       <c r="F499">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G499">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11893,10 +11911,10 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="G500">
-        <v>0.7833333333333333</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7">
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11913,13 +11931,13 @@
         <v>1</v>
       </c>
       <c r="F501">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G501">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11939,10 +11957,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G502">
-        <v>0.3833333333333334</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7">
+        <v>0.38333333333333341</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11959,13 +11977,13 @@
         <v>0</v>
       </c>
       <c r="F503">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G503">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11982,13 +12000,13 @@
         <v>1</v>
       </c>
       <c r="F504">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G504">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -12011,7 +12029,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -12028,13 +12046,13 @@
         <v>0</v>
       </c>
       <c r="F506">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G506">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -12051,13 +12069,13 @@
         <v>0</v>
       </c>
       <c r="F507">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G507">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -12077,10 +12095,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G508">
-        <v>0.3666666666666666</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+        <v>0.36666666666666659</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -12100,10 +12118,10 @@
         <v>0.45</v>
       </c>
       <c r="G509">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -12120,13 +12138,13 @@
         <v>0</v>
       </c>
       <c r="F510">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G510">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -12143,13 +12161,13 @@
         <v>0</v>
       </c>
       <c r="F511">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G511">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -12166,13 +12184,13 @@
         <v>0</v>
       </c>
       <c r="F512">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G512">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12189,13 +12207,13 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G513">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -12212,13 +12230,13 @@
         <v>1</v>
       </c>
       <c r="F514">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G514">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -12235,13 +12253,13 @@
         <v>0</v>
       </c>
       <c r="F515">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G515">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12261,10 +12279,10 @@
         <v>0.45</v>
       </c>
       <c r="G516">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12281,13 +12299,13 @@
         <v>1</v>
       </c>
       <c r="F517">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G517">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -12304,13 +12322,13 @@
         <v>1</v>
       </c>
       <c r="F518">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G518">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12333,7 +12351,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12356,7 +12374,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12373,13 +12391,13 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G521">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12396,13 +12414,13 @@
         <v>0</v>
       </c>
       <c r="F522">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G522">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12419,13 +12437,13 @@
         <v>1</v>
       </c>
       <c r="F523">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G523">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12442,13 +12460,13 @@
         <v>0</v>
       </c>
       <c r="F524">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G524">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12465,13 +12483,13 @@
         <v>0</v>
       </c>
       <c r="F525">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G525">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12488,13 +12506,13 @@
         <v>1</v>
       </c>
       <c r="F526">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G526">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="527" spans="1:7">
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12511,13 +12529,13 @@
         <v>1</v>
       </c>
       <c r="F527">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G527">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12534,18 +12552,18 @@
         <v>0</v>
       </c>
       <c r="F528">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G528">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
       <c r="B529" s="2">
-        <v>45790.47916666666</v>
+        <v>45790.479166666657</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -12557,18 +12575,18 @@
         <v>1</v>
       </c>
       <c r="F529">
-        <v>0.4333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="G529">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
       <c r="B530" s="2">
-        <v>45791.47916666666</v>
+        <v>45791.479166666657</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -12580,18 +12598,18 @@
         <v>1</v>
       </c>
       <c r="F530">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G530">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
       <c r="B531" s="2">
-        <v>45792.47916666666</v>
+        <v>45792.479166666657</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -12603,18 +12621,18 @@
         <v>0</v>
       </c>
       <c r="F531">
-        <v>0.5166666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G531">
-        <v>0.4833333333333333</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <v>45793.47916666666</v>
+        <v>45793.479166666657</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -12626,18 +12644,18 @@
         <v>1</v>
       </c>
       <c r="F532">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G532">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
       <c r="B533" s="2">
-        <v>45796.47916666666</v>
+        <v>45796.479166666657</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -12655,12 +12673,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
       <c r="B534" s="2">
-        <v>45797.47916666666</v>
+        <v>45797.479166666657</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -12678,12 +12696,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
       <c r="B535" s="2">
-        <v>45798.47916666666</v>
+        <v>45798.479166666657</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -12701,12 +12719,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
       <c r="B536" s="2">
-        <v>45799.47916666666</v>
+        <v>45799.479166666657</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -12718,18 +12736,18 @@
         <v>0</v>
       </c>
       <c r="F536">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G536">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
       <c r="B537" s="2">
-        <v>45800.47916666666</v>
+        <v>45800.479166666657</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -12741,18 +12759,18 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G537">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
       <c r="B538" s="2">
-        <v>45804.47916666666</v>
+        <v>45804.479166666657</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -12764,18 +12782,18 @@
         <v>1</v>
       </c>
       <c r="F538">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G538">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
       <c r="B539" s="2">
-        <v>45805.47916666666</v>
+        <v>45805.479166666657</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -12787,18 +12805,18 @@
         <v>0</v>
       </c>
       <c r="F539">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G539">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
       <c r="B540" s="2">
-        <v>45806.47916666666</v>
+        <v>45806.479166666657</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -12810,18 +12828,18 @@
         <v>0</v>
       </c>
       <c r="F540">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G540">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
       <c r="B541" s="2">
-        <v>45807.47916666666</v>
+        <v>45807.479166666657</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -12836,15 +12854,15 @@
         <v>0.45</v>
       </c>
       <c r="G541">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
       <c r="B542" s="2">
-        <v>45810.47916666666</v>
+        <v>45810.479166666657</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -12856,18 +12874,18 @@
         <v>1</v>
       </c>
       <c r="F542">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G542">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
       <c r="B543" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -12885,12 +12903,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
       <c r="B544" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -12905,15 +12923,15 @@
         <v>0.45</v>
       </c>
       <c r="G544">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
       <c r="B545" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -12925,18 +12943,18 @@
         <v>1</v>
       </c>
       <c r="F545">
-        <v>0.5666666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G545">
-        <v>0.4333333333333333</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7">
+        <v>0.43333333333333329</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
       <c r="B546" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -12948,18 +12966,18 @@
         <v>1</v>
       </c>
       <c r="F546">
-        <v>0.3166666666666667</v>
+        <v>0.31666666666666671</v>
       </c>
       <c r="G546">
-        <v>0.6833333333333332</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
       <c r="B547" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -12971,18 +12989,18 @@
         <v>0</v>
       </c>
       <c r="F547">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G547">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
       <c r="B548" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -13000,12 +13018,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
       <c r="B549" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -13017,18 +13035,18 @@
         <v>0</v>
       </c>
       <c r="F549">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G549">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
       <c r="B550" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -13040,18 +13058,18 @@
         <v>1</v>
       </c>
       <c r="F550">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G550">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
       <c r="B551" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -13063,18 +13081,18 @@
         <v>1</v>
       </c>
       <c r="F551">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G551">
         <v>0.45</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
       <c r="B552" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C552">
         <v>1</v>
@@ -13092,12 +13110,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
       <c r="B553" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -13109,18 +13127,18 @@
         <v>0</v>
       </c>
       <c r="F553">
-        <v>0.4833333333333333</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="G553">
-        <v>0.5166666666666667</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
       <c r="B554" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -13138,12 +13156,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
       <c r="B555" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -13155,18 +13173,18 @@
         <v>0</v>
       </c>
       <c r="F555">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G555">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
       <c r="B556" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -13178,18 +13196,18 @@
         <v>1</v>
       </c>
       <c r="F556">
-        <v>0.3833333333333334</v>
+        <v>0.38333333333333341</v>
       </c>
       <c r="G556">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
       <c r="B557" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C557">
         <v>1</v>
@@ -13201,18 +13219,18 @@
         <v>1</v>
       </c>
       <c r="F557">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G557">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
       <c r="B558" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -13224,24 +13242,24 @@
         <v>1</v>
       </c>
       <c r="F558">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G558">
         <v>0.45</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
       <c r="B559" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D559">
         <v>1</v>
       </c>
       <c r="F559">
-        <v>0.3666666666666666</v>
+        <v>0.36666666666666659</v>
       </c>
       <c r="G559">
         <v>0.6333333333333333</v>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="618">
   <si>
     <t>date</t>
   </si>
@@ -1784,6 +1784,24 @@
   </si>
   <si>
     <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2207,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H584"/>
+  <dimension ref="A1:H590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2259,7 +2277,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2285,7 +2303,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2311,7 +2329,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2337,7 +2355,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2363,7 +2381,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2389,7 +2407,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2415,7 +2433,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2441,7 +2459,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2467,7 +2485,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2493,7 +2511,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2519,7 +2537,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2545,7 +2563,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2571,7 +2589,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2597,7 +2615,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2623,7 +2641,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2649,7 +2667,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2675,7 +2693,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2701,7 +2719,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2727,7 +2745,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2753,7 +2771,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2779,7 +2797,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2805,7 +2823,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2831,7 +2849,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2857,7 +2875,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2883,7 +2901,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2909,7 +2927,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2935,7 +2953,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2961,7 +2979,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2987,7 +3005,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3013,7 +3031,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3039,7 +3057,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3065,7 +3083,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3091,7 +3109,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3117,7 +3135,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3143,7 +3161,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3169,7 +3187,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3195,7 +3213,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3221,7 +3239,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3247,7 +3265,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3273,7 +3291,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3299,7 +3317,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3325,7 +3343,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3351,7 +3369,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3377,7 +3395,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3403,7 +3421,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3429,7 +3447,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3455,7 +3473,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3481,7 +3499,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3507,7 +3525,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3533,7 +3551,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3559,7 +3577,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3585,7 +3603,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3611,7 +3629,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3637,7 +3655,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3663,7 +3681,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3689,7 +3707,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3715,7 +3733,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3741,7 +3759,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3767,7 +3785,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3793,7 +3811,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3819,7 +3837,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3845,7 +3863,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3871,7 +3889,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3897,7 +3915,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3923,7 +3941,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3949,7 +3967,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3975,7 +3993,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4001,7 +4019,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4027,7 +4045,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4053,7 +4071,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4079,7 +4097,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4105,7 +4123,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4131,7 +4149,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4157,7 +4175,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4183,7 +4201,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4209,7 +4227,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4235,7 +4253,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4261,7 +4279,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4287,7 +4305,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4313,7 +4331,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4339,7 +4357,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4365,7 +4383,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4391,7 +4409,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4417,7 +4435,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4443,7 +4461,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4469,7 +4487,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4495,7 +4513,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4521,7 +4539,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4547,7 +4565,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4573,7 +4591,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4599,7 +4617,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4625,7 +4643,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4651,7 +4669,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4677,7 +4695,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4703,7 +4721,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4729,7 +4747,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4755,7 +4773,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4781,7 +4799,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4807,7 +4825,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4833,7 +4851,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4859,7 +4877,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4885,7 +4903,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4911,7 +4929,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4937,7 +4955,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4963,7 +4981,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4989,7 +5007,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5015,7 +5033,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5041,7 +5059,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5067,7 +5085,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5093,7 +5111,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5119,7 +5137,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5145,7 +5163,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5171,7 +5189,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5197,7 +5215,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5223,7 +5241,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5249,7 +5267,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5275,7 +5293,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5301,7 +5319,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5327,7 +5345,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5353,7 +5371,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5379,7 +5397,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5405,7 +5423,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5431,7 +5449,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5457,7 +5475,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5483,7 +5501,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5509,7 +5527,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5535,7 +5553,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5561,7 +5579,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5587,7 +5605,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5613,7 +5631,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5639,7 +5657,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5665,7 +5683,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5691,7 +5709,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5717,7 +5735,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5743,7 +5761,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5769,7 +5787,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5795,7 +5813,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5821,7 +5839,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5847,7 +5865,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5873,7 +5891,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5899,7 +5917,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5925,7 +5943,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5951,7 +5969,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5977,7 +5995,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6003,7 +6021,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6029,7 +6047,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6055,7 +6073,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6081,7 +6099,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6107,7 +6125,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6133,7 +6151,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6159,7 +6177,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6185,7 +6203,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6211,7 +6229,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6237,7 +6255,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6263,7 +6281,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6289,7 +6307,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6315,7 +6333,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6341,7 +6359,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6367,7 +6385,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6393,7 +6411,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6419,7 +6437,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6445,7 +6463,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6471,7 +6489,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6497,7 +6515,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6523,7 +6541,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6549,7 +6567,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6575,7 +6593,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6601,7 +6619,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6627,7 +6645,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6653,7 +6671,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6679,7 +6697,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6705,7 +6723,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6731,7 +6749,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6757,7 +6775,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6783,7 +6801,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6809,7 +6827,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6835,7 +6853,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6861,7 +6879,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6887,7 +6905,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6913,7 +6931,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6939,7 +6957,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6965,7 +6983,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6991,7 +7009,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7017,7 +7035,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7043,7 +7061,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7069,7 +7087,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7095,7 +7113,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7121,7 +7139,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7147,7 +7165,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7173,7 +7191,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7199,7 +7217,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7225,7 +7243,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7251,7 +7269,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7277,7 +7295,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7303,7 +7321,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7329,7 +7347,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7355,7 +7373,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7381,7 +7399,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7407,7 +7425,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7433,7 +7451,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7459,7 +7477,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7485,7 +7503,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7511,7 +7529,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7537,7 +7555,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7563,7 +7581,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7589,7 +7607,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7615,7 +7633,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7641,7 +7659,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7667,7 +7685,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7693,7 +7711,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7719,7 +7737,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7745,7 +7763,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7771,7 +7789,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7797,7 +7815,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7823,7 +7841,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7849,7 +7867,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7875,7 +7893,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7901,7 +7919,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7927,7 +7945,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7953,7 +7971,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7979,7 +7997,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8005,7 +8023,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8031,7 +8049,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8057,7 +8075,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8083,7 +8101,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8109,7 +8127,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8135,7 +8153,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8161,7 +8179,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8187,7 +8205,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8213,7 +8231,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8239,7 +8257,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8265,7 +8283,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8291,7 +8309,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8317,7 +8335,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8343,7 +8361,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8369,7 +8387,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8395,7 +8413,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8421,7 +8439,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8447,7 +8465,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8473,7 +8491,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8499,7 +8517,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8525,7 +8543,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8551,7 +8569,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8577,7 +8595,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8603,7 +8621,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8629,7 +8647,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8655,7 +8673,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8681,7 +8699,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8707,7 +8725,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8733,7 +8751,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8759,7 +8777,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8785,7 +8803,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8811,7 +8829,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8837,7 +8855,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8863,7 +8881,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8889,7 +8907,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8915,7 +8933,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8941,7 +8959,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8967,7 +8985,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8993,7 +9011,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9019,7 +9037,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9045,7 +9063,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9071,7 +9089,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9097,7 +9115,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9123,7 +9141,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9149,7 +9167,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9175,7 +9193,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9201,7 +9219,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9227,7 +9245,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9253,7 +9271,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9279,7 +9297,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9305,7 +9323,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9331,7 +9349,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9357,7 +9375,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9383,7 +9401,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9409,7 +9427,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9435,7 +9453,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9461,7 +9479,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9487,7 +9505,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9513,7 +9531,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9539,7 +9557,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9565,7 +9583,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9591,7 +9609,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9617,7 +9635,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9643,7 +9661,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9669,7 +9687,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9695,7 +9713,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9721,7 +9739,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9747,7 +9765,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9773,7 +9791,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9799,7 +9817,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9825,7 +9843,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9851,7 +9869,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9877,7 +9895,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9903,7 +9921,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9929,7 +9947,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9955,7 +9973,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9981,7 +9999,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10007,7 +10025,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10033,7 +10051,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10059,7 +10077,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10085,7 +10103,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10111,7 +10129,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10137,7 +10155,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10163,7 +10181,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10189,7 +10207,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10215,7 +10233,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10241,7 +10259,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10267,7 +10285,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10293,7 +10311,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10319,7 +10337,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10345,7 +10363,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10371,7 +10389,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10397,7 +10415,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10423,7 +10441,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10449,7 +10467,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10475,7 +10493,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10501,7 +10519,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10527,7 +10545,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10553,7 +10571,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10579,7 +10597,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10605,7 +10623,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10631,7 +10649,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10657,7 +10675,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10683,7 +10701,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10709,7 +10727,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10735,7 +10753,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10761,7 +10779,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10787,7 +10805,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10813,7 +10831,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10839,7 +10857,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10865,7 +10883,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10891,7 +10909,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10917,7 +10935,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10943,7 +10961,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10969,7 +10987,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10995,7 +11013,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11021,7 +11039,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11047,7 +11065,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11073,7 +11091,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11099,7 +11117,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11125,7 +11143,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11151,7 +11169,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11177,7 +11195,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11203,7 +11221,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11229,7 +11247,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11255,7 +11273,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11281,7 +11299,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11307,7 +11325,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11333,7 +11351,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11359,7 +11377,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11385,7 +11403,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11411,7 +11429,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11437,7 +11455,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11463,7 +11481,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11489,7 +11507,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11515,7 +11533,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11541,7 +11559,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11567,7 +11585,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11593,7 +11611,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11619,7 +11637,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11645,7 +11663,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11671,7 +11689,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11697,7 +11715,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11723,7 +11741,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11749,7 +11767,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11775,7 +11793,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11801,7 +11819,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11827,7 +11845,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11853,7 +11871,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11879,7 +11897,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11905,7 +11923,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11931,7 +11949,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11957,7 +11975,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11983,7 +12001,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12009,7 +12027,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12035,7 +12053,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12061,7 +12079,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12087,7 +12105,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12113,7 +12131,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12139,7 +12157,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12165,7 +12183,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12191,7 +12209,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12217,7 +12235,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12243,7 +12261,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12269,7 +12287,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12295,7 +12313,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12321,7 +12339,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12347,7 +12365,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12373,7 +12391,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12399,7 +12417,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12425,7 +12443,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12451,7 +12469,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12477,7 +12495,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12503,7 +12521,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12529,7 +12547,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12555,7 +12573,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12581,7 +12599,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12607,7 +12625,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12633,7 +12651,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12659,7 +12677,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12685,7 +12703,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12711,7 +12729,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12737,7 +12755,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12763,7 +12781,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12789,7 +12807,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12815,7 +12833,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12841,7 +12859,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12867,7 +12885,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12893,7 +12911,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12919,7 +12937,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12945,7 +12963,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12971,7 +12989,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12997,7 +13015,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13023,7 +13041,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13049,7 +13067,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13075,7 +13093,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13101,7 +13119,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13127,7 +13145,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13153,7 +13171,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13179,7 +13197,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13205,7 +13223,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13231,7 +13249,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13257,7 +13275,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13283,7 +13301,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13309,7 +13327,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13335,7 +13353,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13361,7 +13379,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13387,7 +13405,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13413,7 +13431,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13439,7 +13457,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13465,7 +13483,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13491,7 +13509,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13517,7 +13535,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13543,7 +13561,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13569,7 +13587,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13595,7 +13613,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13621,7 +13639,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13647,7 +13665,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13673,7 +13691,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13699,7 +13717,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13725,7 +13743,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13751,7 +13769,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13777,7 +13795,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13803,7 +13821,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13829,7 +13847,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13855,7 +13873,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13881,7 +13899,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13907,7 +13925,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13933,7 +13951,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13959,7 +13977,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13985,7 +14003,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14011,7 +14029,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14037,7 +14055,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14063,7 +14081,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14089,7 +14107,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14115,7 +14133,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14141,7 +14159,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14167,7 +14185,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14193,7 +14211,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14219,7 +14237,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14245,7 +14263,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14271,7 +14289,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14297,7 +14315,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14323,7 +14341,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14349,7 +14367,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14375,7 +14393,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14401,7 +14419,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14427,7 +14445,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14453,7 +14471,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14479,7 +14497,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14505,7 +14523,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14531,7 +14549,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14557,7 +14575,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14583,7 +14601,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14609,7 +14627,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14635,7 +14653,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14661,7 +14679,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14687,7 +14705,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14713,7 +14731,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14739,7 +14757,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14765,7 +14783,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14791,7 +14809,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14817,7 +14835,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14843,7 +14861,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14869,7 +14887,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14895,7 +14913,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14921,7 +14939,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14947,7 +14965,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14973,7 +14991,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14999,7 +15017,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15025,7 +15043,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15051,7 +15069,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15077,7 +15095,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15103,7 +15121,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15129,7 +15147,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15155,7 +15173,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15181,7 +15199,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15207,7 +15225,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15233,7 +15251,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15259,7 +15277,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15285,7 +15303,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15311,7 +15329,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15337,7 +15355,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15363,7 +15381,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15389,7 +15407,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15415,7 +15433,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15441,7 +15459,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15467,7 +15485,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15493,7 +15511,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15519,7 +15537,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15545,7 +15563,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15571,7 +15589,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15597,7 +15615,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15623,7 +15641,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15649,7 +15667,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15675,7 +15693,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15701,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15727,7 +15745,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15753,7 +15771,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15779,7 +15797,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15805,7 +15823,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15831,7 +15849,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15857,7 +15875,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15883,7 +15901,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15909,7 +15927,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15935,7 +15953,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15961,7 +15979,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15987,7 +16005,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16013,7 +16031,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16039,7 +16057,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16065,7 +16083,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16091,7 +16109,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16117,7 +16135,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16143,7 +16161,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16169,7 +16187,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16195,7 +16213,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16221,7 +16239,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16247,7 +16265,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16273,7 +16291,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16299,7 +16317,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16325,7 +16343,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16351,7 +16369,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16377,7 +16395,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16403,7 +16421,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16429,7 +16447,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16455,7 +16473,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16481,7 +16499,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16507,7 +16525,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16533,7 +16551,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16559,7 +16577,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16585,7 +16603,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16611,7 +16629,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16637,7 +16655,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16663,7 +16681,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16689,7 +16707,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16715,7 +16733,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16741,7 +16759,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16767,7 +16785,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16793,7 +16811,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16819,7 +16837,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16845,7 +16863,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16871,7 +16889,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16897,7 +16915,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16923,7 +16941,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16949,7 +16967,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16975,7 +16993,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17001,7 +17019,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17027,7 +17045,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17053,7 +17071,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17079,7 +17097,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17105,7 +17123,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17131,7 +17149,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17157,7 +17175,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17183,7 +17201,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17209,7 +17227,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17235,7 +17253,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17261,7 +17279,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17287,7 +17305,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17313,7 +17331,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17339,7 +17357,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17365,7 +17383,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17375,8 +17393,14 @@
       <c r="B584" t="s">
         <v>589</v>
       </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
       <c r="D584">
         <v>1</v>
+      </c>
+      <c r="E584">
+        <v>0</v>
       </c>
       <c r="F584">
         <v>0.35</v>
@@ -17385,7 +17409,157 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>601</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>590</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G585">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="H585" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>591</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586">
+        <v>0.5</v>
+      </c>
+      <c r="G586">
+        <v>0.5</v>
+      </c>
+      <c r="H586" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>592</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G587">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H587" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>593</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+      <c r="E588">
+        <v>1</v>
+      </c>
+      <c r="F588">
+        <v>0.5</v>
+      </c>
+      <c r="G588">
+        <v>0.5</v>
+      </c>
+      <c r="H588" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>594</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>1</v>
+      </c>
+      <c r="F589">
+        <v>0.45</v>
+      </c>
+      <c r="G589">
+        <v>0.55</v>
+      </c>
+      <c r="H589" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>595</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G590">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="H590" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="621">
   <si>
     <t>date</t>
   </si>
@@ -1802,6 +1802,15 @@
   </si>
   <si>
     <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2225,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2277,7 +2286,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2303,7 +2312,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2329,7 +2338,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2355,7 +2364,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2381,7 +2390,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2407,7 +2416,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2433,7 +2442,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2459,7 +2468,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2485,7 +2494,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2511,7 +2520,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2537,7 +2546,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2563,7 +2572,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2589,7 +2598,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2615,7 +2624,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2641,7 +2650,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2667,7 +2676,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2693,7 +2702,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2719,7 +2728,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2745,7 +2754,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2771,7 +2780,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2797,7 +2806,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2823,7 +2832,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2849,7 +2858,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2875,7 +2884,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2901,7 +2910,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2927,7 +2936,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2953,7 +2962,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2979,7 +2988,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3005,7 +3014,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3031,7 +3040,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3057,7 +3066,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3083,7 +3092,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3109,7 +3118,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3135,7 +3144,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3161,7 +3170,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3187,7 +3196,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3213,7 +3222,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3239,7 +3248,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3265,7 +3274,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3291,7 +3300,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3317,7 +3326,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3343,7 +3352,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3369,7 +3378,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3395,7 +3404,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3421,7 +3430,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3447,7 +3456,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3473,7 +3482,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3499,7 +3508,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3525,7 +3534,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3551,7 +3560,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3577,7 +3586,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3603,7 +3612,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3629,7 +3638,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3655,7 +3664,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3681,7 +3690,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3707,7 +3716,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3733,7 +3742,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3759,7 +3768,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3785,7 +3794,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3811,7 +3820,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3837,7 +3846,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3863,7 +3872,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3889,7 +3898,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3915,7 +3924,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3941,7 +3950,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3967,7 +3976,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3993,7 +4002,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4019,7 +4028,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4045,7 +4054,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4071,7 +4080,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4097,7 +4106,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4123,7 +4132,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4149,7 +4158,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4175,7 +4184,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4201,7 +4210,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4227,7 +4236,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4253,7 +4262,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4279,7 +4288,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4305,7 +4314,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4331,7 +4340,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4357,7 +4366,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4383,7 +4392,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4409,7 +4418,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4435,7 +4444,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4461,7 +4470,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4487,7 +4496,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4513,7 +4522,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4539,7 +4548,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4565,7 +4574,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4591,7 +4600,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4617,7 +4626,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4643,7 +4652,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4669,7 +4678,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4695,7 +4704,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4721,7 +4730,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4747,7 +4756,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4773,7 +4782,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4799,7 +4808,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4825,7 +4834,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4851,7 +4860,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4877,7 +4886,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4903,7 +4912,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4929,7 +4938,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4955,7 +4964,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4981,7 +4990,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5007,7 +5016,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5033,7 +5042,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5059,7 +5068,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5085,7 +5094,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5111,7 +5120,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5137,7 +5146,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5163,7 +5172,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5189,7 +5198,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5215,7 +5224,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5241,7 +5250,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5267,7 +5276,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5293,7 +5302,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5319,7 +5328,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5345,7 +5354,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5371,7 +5380,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5397,7 +5406,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5423,7 +5432,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5449,7 +5458,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5475,7 +5484,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5501,7 +5510,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5527,7 +5536,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5553,7 +5562,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5579,7 +5588,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5605,7 +5614,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5631,7 +5640,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5657,7 +5666,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5683,7 +5692,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5709,7 +5718,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5735,7 +5744,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5761,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5787,7 +5796,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5813,7 +5822,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5839,7 +5848,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5865,7 +5874,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5891,7 +5900,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5917,7 +5926,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5943,7 +5952,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5969,7 +5978,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5995,7 +6004,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6021,7 +6030,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6047,7 +6056,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6073,7 +6082,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6099,7 +6108,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6125,7 +6134,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6151,7 +6160,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6177,7 +6186,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6203,7 +6212,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6229,7 +6238,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6255,7 +6264,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6281,7 +6290,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6307,7 +6316,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6333,7 +6342,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6359,7 +6368,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6385,7 +6394,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6411,7 +6420,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6437,7 +6446,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6463,7 +6472,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6489,7 +6498,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6515,7 +6524,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6541,7 +6550,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6567,7 +6576,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6593,7 +6602,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6619,7 +6628,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6645,7 +6654,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6671,7 +6680,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6697,7 +6706,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6723,7 +6732,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6749,7 +6758,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6775,7 +6784,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6801,7 +6810,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6827,7 +6836,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6853,7 +6862,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6879,7 +6888,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6905,7 +6914,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6931,7 +6940,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6957,7 +6966,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6983,7 +6992,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7009,7 +7018,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7035,7 +7044,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7061,7 +7070,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7087,7 +7096,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7113,7 +7122,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7139,7 +7148,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7165,7 +7174,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7191,7 +7200,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7217,7 +7226,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7243,7 +7252,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7269,7 +7278,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7295,7 +7304,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7321,7 +7330,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7347,7 +7356,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7373,7 +7382,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7399,7 +7408,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7425,7 +7434,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7451,7 +7460,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7477,7 +7486,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7503,7 +7512,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7529,7 +7538,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7555,7 +7564,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7581,7 +7590,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7607,7 +7616,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7633,7 +7642,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7659,7 +7668,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7685,7 +7694,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7711,7 +7720,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7737,7 +7746,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7763,7 +7772,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7789,7 +7798,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7815,7 +7824,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7841,7 +7850,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7867,7 +7876,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7893,7 +7902,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7919,7 +7928,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7945,7 +7954,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7971,7 +7980,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7997,7 +8006,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8023,7 +8032,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8049,7 +8058,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8075,7 +8084,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8101,7 +8110,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8127,7 +8136,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8153,7 +8162,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8179,7 +8188,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8205,7 +8214,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8231,7 +8240,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8257,7 +8266,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8283,7 +8292,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8309,7 +8318,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8335,7 +8344,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8361,7 +8370,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8387,7 +8396,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8413,7 +8422,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8439,7 +8448,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8465,7 +8474,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8491,7 +8500,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8517,7 +8526,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8543,7 +8552,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8569,7 +8578,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8595,7 +8604,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8621,7 +8630,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8647,7 +8656,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8673,7 +8682,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8699,7 +8708,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8725,7 +8734,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8751,7 +8760,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8777,7 +8786,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8803,7 +8812,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8829,7 +8838,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8855,7 +8864,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8881,7 +8890,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8907,7 +8916,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8933,7 +8942,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8959,7 +8968,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8985,7 +8994,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9011,7 +9020,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9037,7 +9046,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9063,7 +9072,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9089,7 +9098,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9115,7 +9124,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9141,7 +9150,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9167,7 +9176,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9193,7 +9202,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9219,7 +9228,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9245,7 +9254,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9271,7 +9280,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9297,7 +9306,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9323,7 +9332,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9349,7 +9358,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9375,7 +9384,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9401,7 +9410,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9427,7 +9436,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9453,7 +9462,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9479,7 +9488,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9505,7 +9514,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9531,7 +9540,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9557,7 +9566,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9583,7 +9592,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9609,7 +9618,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9635,7 +9644,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9661,7 +9670,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9687,7 +9696,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9713,7 +9722,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9739,7 +9748,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9765,7 +9774,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9791,7 +9800,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9817,7 +9826,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9843,7 +9852,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9869,7 +9878,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9895,7 +9904,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9921,7 +9930,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9947,7 +9956,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9973,7 +9982,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9999,7 +10008,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10025,7 +10034,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10051,7 +10060,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10077,7 +10086,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10103,7 +10112,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10129,7 +10138,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10155,7 +10164,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10181,7 +10190,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10207,7 +10216,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10233,7 +10242,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10259,7 +10268,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10285,7 +10294,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10311,7 +10320,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10337,7 +10346,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10363,7 +10372,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10389,7 +10398,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10415,7 +10424,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10441,7 +10450,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10467,7 +10476,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10493,7 +10502,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10519,7 +10528,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10545,7 +10554,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10571,7 +10580,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10597,7 +10606,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10623,7 +10632,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10649,7 +10658,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10675,7 +10684,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10701,7 +10710,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10727,7 +10736,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10753,7 +10762,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10779,7 +10788,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10805,7 +10814,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10831,7 +10840,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10857,7 +10866,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10883,7 +10892,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10909,7 +10918,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10935,7 +10944,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10961,7 +10970,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10987,7 +10996,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11013,7 +11022,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11039,7 +11048,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11065,7 +11074,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11091,7 +11100,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11117,7 +11126,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11143,7 +11152,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11169,7 +11178,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11195,7 +11204,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11221,7 +11230,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11247,7 +11256,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11273,7 +11282,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11299,7 +11308,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11325,7 +11334,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11351,7 +11360,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11377,7 +11386,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11403,7 +11412,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11429,7 +11438,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11455,7 +11464,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11481,7 +11490,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11507,7 +11516,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11533,7 +11542,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11559,7 +11568,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11585,7 +11594,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11611,7 +11620,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11637,7 +11646,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11663,7 +11672,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11689,7 +11698,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11715,7 +11724,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11741,7 +11750,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11767,7 +11776,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11793,7 +11802,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11819,7 +11828,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11845,7 +11854,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11871,7 +11880,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11897,7 +11906,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11923,7 +11932,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11949,7 +11958,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11975,7 +11984,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12001,7 +12010,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12027,7 +12036,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12053,7 +12062,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12079,7 +12088,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12105,7 +12114,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12131,7 +12140,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12157,7 +12166,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12183,7 +12192,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12209,7 +12218,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12235,7 +12244,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12261,7 +12270,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12287,7 +12296,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12313,7 +12322,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12339,7 +12348,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12365,7 +12374,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12391,7 +12400,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12417,7 +12426,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12443,7 +12452,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12469,7 +12478,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12495,7 +12504,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12521,7 +12530,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12547,7 +12556,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12573,7 +12582,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12599,7 +12608,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12625,7 +12634,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12651,7 +12660,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12677,7 +12686,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12703,7 +12712,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12729,7 +12738,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12755,7 +12764,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12781,7 +12790,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12807,7 +12816,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12833,7 +12842,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12859,7 +12868,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12885,7 +12894,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12911,7 +12920,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12937,7 +12946,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12963,7 +12972,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12989,7 +12998,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13015,7 +13024,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13041,7 +13050,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13067,7 +13076,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13093,7 +13102,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13119,7 +13128,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13145,7 +13154,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13171,7 +13180,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13197,7 +13206,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13223,7 +13232,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13249,7 +13258,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13275,7 +13284,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13301,7 +13310,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13327,7 +13336,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13353,7 +13362,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13379,7 +13388,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13405,7 +13414,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13431,7 +13440,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13457,7 +13466,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13483,7 +13492,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13509,7 +13518,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13535,7 +13544,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13561,7 +13570,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13587,7 +13596,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13613,7 +13622,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13639,7 +13648,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13665,7 +13674,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13691,7 +13700,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13717,7 +13726,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13743,7 +13752,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13769,7 +13778,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13795,7 +13804,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13821,7 +13830,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13847,7 +13856,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13873,7 +13882,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13899,7 +13908,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13925,7 +13934,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13951,7 +13960,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13977,7 +13986,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14003,7 +14012,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14029,7 +14038,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14055,7 +14064,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14081,7 +14090,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14107,7 +14116,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14133,7 +14142,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14159,7 +14168,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14185,7 +14194,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14211,7 +14220,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14237,7 +14246,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14263,7 +14272,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14289,7 +14298,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14315,7 +14324,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14341,7 +14350,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14367,7 +14376,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14393,7 +14402,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14419,7 +14428,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14445,7 +14454,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14471,7 +14480,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14497,7 +14506,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14523,7 +14532,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14549,7 +14558,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14575,7 +14584,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14601,7 +14610,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14627,7 +14636,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14653,7 +14662,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14679,7 +14688,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14705,7 +14714,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14731,7 +14740,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14757,7 +14766,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14783,7 +14792,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14809,7 +14818,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14835,7 +14844,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14861,7 +14870,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14887,7 +14896,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14913,7 +14922,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14939,7 +14948,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14965,7 +14974,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14991,7 +15000,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15017,7 +15026,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15043,7 +15052,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15069,7 +15078,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15095,7 +15104,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15121,7 +15130,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15147,7 +15156,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15173,7 +15182,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15199,7 +15208,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15225,7 +15234,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15251,7 +15260,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15277,7 +15286,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15303,7 +15312,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15329,7 +15338,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15355,7 +15364,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15381,7 +15390,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15407,7 +15416,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15433,7 +15442,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15459,7 +15468,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15485,7 +15494,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15511,7 +15520,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15537,7 +15546,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15563,7 +15572,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15589,7 +15598,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15615,7 +15624,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15641,7 +15650,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15667,7 +15676,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15693,7 +15702,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15719,7 +15728,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15745,7 +15754,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15771,7 +15780,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15797,7 +15806,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15823,7 +15832,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15849,7 +15858,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15875,7 +15884,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15901,7 +15910,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15927,7 +15936,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15953,7 +15962,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15979,7 +15988,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16005,7 +16014,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16031,7 +16040,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16057,7 +16066,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16083,7 +16092,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16109,7 +16118,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16135,7 +16144,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16161,7 +16170,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16187,7 +16196,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16213,7 +16222,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16239,7 +16248,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16265,7 +16274,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16291,7 +16300,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16317,7 +16326,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16343,7 +16352,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16369,7 +16378,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16395,7 +16404,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16421,7 +16430,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16447,7 +16456,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16473,7 +16482,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16499,7 +16508,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16525,7 +16534,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16551,7 +16560,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16577,7 +16586,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16603,7 +16612,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16629,7 +16638,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16655,7 +16664,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16681,7 +16690,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16707,7 +16716,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16733,7 +16742,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16759,7 +16768,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16785,7 +16794,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16811,7 +16820,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16837,7 +16846,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16863,7 +16872,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16889,7 +16898,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16915,7 +16924,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16941,7 +16950,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16967,7 +16976,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16993,7 +17002,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17019,7 +17028,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17045,7 +17054,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17071,7 +17080,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17097,7 +17106,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17123,7 +17132,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17149,7 +17158,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17175,7 +17184,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17201,7 +17210,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17227,7 +17236,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17253,7 +17262,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17279,7 +17288,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17305,7 +17314,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17331,7 +17340,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17357,7 +17366,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17383,7 +17392,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17409,7 +17418,7 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17435,7 +17444,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H585" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17461,7 +17470,7 @@
         <v>0.5</v>
       </c>
       <c r="H586" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17487,7 +17496,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H587" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17513,7 +17522,7 @@
         <v>0.5</v>
       </c>
       <c r="H588" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17539,7 +17548,7 @@
         <v>0.55</v>
       </c>
       <c r="H589" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17549,8 +17558,14 @@
       <c r="B590" t="s">
         <v>595</v>
       </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
       <c r="D590">
         <v>0</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
       </c>
       <c r="F590">
         <v>0.5166666666666667</v>
@@ -17559,7 +17574,79 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H590" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
         <v>596</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>1</v>
+      </c>
+      <c r="F591">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G591">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H591" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>597</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G592">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H592" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>598</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="F593">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G593">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H593" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="624">
   <si>
     <t>date</t>
   </si>
@@ -1811,6 +1811,15 @@
   </si>
   <si>
     <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2234,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H593"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2286,7 +2295,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2312,7 +2321,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2338,7 +2347,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2364,7 +2373,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2390,7 +2399,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2416,7 +2425,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2442,7 +2451,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2468,7 +2477,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2494,7 +2503,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2520,7 +2529,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2546,7 +2555,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2572,7 +2581,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2598,7 +2607,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2624,7 +2633,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2650,7 +2659,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2676,7 +2685,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2702,7 +2711,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2728,7 +2737,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2754,7 +2763,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2780,7 +2789,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2806,7 +2815,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2832,7 +2841,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2858,7 +2867,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2884,7 +2893,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2910,7 +2919,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2936,7 +2945,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2962,7 +2971,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2988,7 +2997,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3014,7 +3023,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3040,7 +3049,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3066,7 +3075,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3092,7 +3101,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3118,7 +3127,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3144,7 +3153,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3170,7 +3179,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3196,7 +3205,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3222,7 +3231,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3248,7 +3257,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3274,7 +3283,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3300,7 +3309,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3326,7 +3335,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3352,7 +3361,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3378,7 +3387,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3404,7 +3413,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3430,7 +3439,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3456,7 +3465,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3482,7 +3491,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3508,7 +3517,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3534,7 +3543,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3560,7 +3569,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3586,7 +3595,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3612,7 +3621,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3638,7 +3647,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3664,7 +3673,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3690,7 +3699,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3716,7 +3725,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3742,7 +3751,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3768,7 +3777,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3794,7 +3803,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3820,7 +3829,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3846,7 +3855,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3872,7 +3881,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3898,7 +3907,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3924,7 +3933,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3950,7 +3959,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3976,7 +3985,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4002,7 +4011,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4028,7 +4037,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4054,7 +4063,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4080,7 +4089,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4106,7 +4115,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4132,7 +4141,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4158,7 +4167,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4184,7 +4193,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4210,7 +4219,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4236,7 +4245,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4262,7 +4271,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4288,7 +4297,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4314,7 +4323,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4340,7 +4349,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4366,7 +4375,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4392,7 +4401,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4418,7 +4427,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4444,7 +4453,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4470,7 +4479,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4496,7 +4505,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4522,7 +4531,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4548,7 +4557,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4574,7 +4583,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4600,7 +4609,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4626,7 +4635,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4652,7 +4661,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4678,7 +4687,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4704,7 +4713,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4730,7 +4739,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4756,7 +4765,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4782,7 +4791,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4808,7 +4817,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4834,7 +4843,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4860,7 +4869,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4886,7 +4895,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4912,7 +4921,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4938,7 +4947,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4964,7 +4973,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4990,7 +4999,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5016,7 +5025,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5042,7 +5051,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5068,7 +5077,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5094,7 +5103,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5120,7 +5129,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5146,7 +5155,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5172,7 +5181,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5198,7 +5207,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5224,7 +5233,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5250,7 +5259,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5276,7 +5285,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5302,7 +5311,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5328,7 +5337,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5354,7 +5363,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5380,7 +5389,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5406,7 +5415,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5432,7 +5441,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5458,7 +5467,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5484,7 +5493,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5510,7 +5519,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5536,7 +5545,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5562,7 +5571,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5588,7 +5597,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5614,7 +5623,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5640,7 +5649,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5666,7 +5675,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5692,7 +5701,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5718,7 +5727,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5744,7 +5753,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5770,7 +5779,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5796,7 +5805,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5822,7 +5831,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5848,7 +5857,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5874,7 +5883,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5900,7 +5909,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5926,7 +5935,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5952,7 +5961,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5978,7 +5987,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6004,7 +6013,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6030,7 +6039,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6056,7 +6065,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6082,7 +6091,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6108,7 +6117,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6134,7 +6143,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6160,7 +6169,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6186,7 +6195,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6212,7 +6221,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6238,7 +6247,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6264,7 +6273,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6290,7 +6299,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6316,7 +6325,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6342,7 +6351,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6368,7 +6377,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6394,7 +6403,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6420,7 +6429,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6446,7 +6455,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6472,7 +6481,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6498,7 +6507,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6524,7 +6533,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6550,7 +6559,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6576,7 +6585,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6602,7 +6611,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6628,7 +6637,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6654,7 +6663,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6680,7 +6689,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6706,7 +6715,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6732,7 +6741,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6758,7 +6767,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6784,7 +6793,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6810,7 +6819,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6836,7 +6845,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6862,7 +6871,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6888,7 +6897,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6914,7 +6923,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6940,7 +6949,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6966,7 +6975,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6992,7 +7001,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7018,7 +7027,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7044,7 +7053,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7070,7 +7079,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7096,7 +7105,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7122,7 +7131,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7148,7 +7157,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7174,7 +7183,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7200,7 +7209,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7226,7 +7235,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7252,7 +7261,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7278,7 +7287,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7304,7 +7313,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7330,7 +7339,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7356,7 +7365,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7382,7 +7391,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7408,7 +7417,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7434,7 +7443,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7460,7 +7469,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7486,7 +7495,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7512,7 +7521,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7538,7 +7547,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7564,7 +7573,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7590,7 +7599,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7616,7 +7625,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7642,7 +7651,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7668,7 +7677,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7694,7 +7703,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7720,7 +7729,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7746,7 +7755,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7772,7 +7781,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7798,7 +7807,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7824,7 +7833,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7850,7 +7859,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7876,7 +7885,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7902,7 +7911,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7928,7 +7937,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7954,7 +7963,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7980,7 +7989,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8006,7 +8015,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8032,7 +8041,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8058,7 +8067,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8084,7 +8093,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8110,7 +8119,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8136,7 +8145,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8162,7 +8171,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8188,7 +8197,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8214,7 +8223,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8240,7 +8249,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8266,7 +8275,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8292,7 +8301,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8318,7 +8327,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8344,7 +8353,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8370,7 +8379,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8396,7 +8405,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8422,7 +8431,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8448,7 +8457,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8474,7 +8483,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8500,7 +8509,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8526,7 +8535,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8552,7 +8561,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8578,7 +8587,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8604,7 +8613,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8630,7 +8639,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8656,7 +8665,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8682,7 +8691,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8708,7 +8717,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8734,7 +8743,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8760,7 +8769,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8786,7 +8795,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8812,7 +8821,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8838,7 +8847,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8864,7 +8873,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8890,7 +8899,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8916,7 +8925,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8942,7 +8951,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8968,7 +8977,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8994,7 +9003,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9020,7 +9029,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9046,7 +9055,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9072,7 +9081,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9098,7 +9107,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9124,7 +9133,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9150,7 +9159,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9176,7 +9185,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9202,7 +9211,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9228,7 +9237,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9254,7 +9263,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9280,7 +9289,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9306,7 +9315,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9332,7 +9341,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9358,7 +9367,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9384,7 +9393,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9410,7 +9419,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9436,7 +9445,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9462,7 +9471,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9488,7 +9497,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9514,7 +9523,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9540,7 +9549,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9566,7 +9575,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9592,7 +9601,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9618,7 +9627,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9644,7 +9653,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9670,7 +9679,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9696,7 +9705,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9722,7 +9731,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9748,7 +9757,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9774,7 +9783,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9800,7 +9809,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9826,7 +9835,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9852,7 +9861,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9878,7 +9887,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9904,7 +9913,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9930,7 +9939,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9956,7 +9965,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9982,7 +9991,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10008,7 +10017,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10034,7 +10043,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10060,7 +10069,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10086,7 +10095,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10112,7 +10121,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10138,7 +10147,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10164,7 +10173,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10190,7 +10199,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10216,7 +10225,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10242,7 +10251,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10268,7 +10277,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10294,7 +10303,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10320,7 +10329,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10346,7 +10355,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10372,7 +10381,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10398,7 +10407,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10424,7 +10433,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10450,7 +10459,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10476,7 +10485,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10502,7 +10511,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10528,7 +10537,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10554,7 +10563,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10580,7 +10589,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10606,7 +10615,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10632,7 +10641,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10658,7 +10667,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10684,7 +10693,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10710,7 +10719,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10736,7 +10745,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10762,7 +10771,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10788,7 +10797,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10814,7 +10823,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10840,7 +10849,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10866,7 +10875,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10892,7 +10901,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10918,7 +10927,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10944,7 +10953,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10970,7 +10979,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10996,7 +11005,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11022,7 +11031,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11048,7 +11057,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11074,7 +11083,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11100,7 +11109,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11126,7 +11135,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11152,7 +11161,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11178,7 +11187,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11204,7 +11213,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11230,7 +11239,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11256,7 +11265,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11282,7 +11291,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11308,7 +11317,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11334,7 +11343,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11360,7 +11369,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11386,7 +11395,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11412,7 +11421,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11438,7 +11447,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11464,7 +11473,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11490,7 +11499,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11516,7 +11525,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11542,7 +11551,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11568,7 +11577,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11594,7 +11603,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11620,7 +11629,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11646,7 +11655,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11672,7 +11681,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11698,7 +11707,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11724,7 +11733,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11750,7 +11759,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11776,7 +11785,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11802,7 +11811,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11828,7 +11837,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11854,7 +11863,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11880,7 +11889,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11906,7 +11915,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11932,7 +11941,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11958,7 +11967,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11984,7 +11993,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12010,7 +12019,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12036,7 +12045,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12062,7 +12071,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12088,7 +12097,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12114,7 +12123,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12140,7 +12149,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12166,7 +12175,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12192,7 +12201,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12218,7 +12227,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12244,7 +12253,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12270,7 +12279,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12296,7 +12305,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12322,7 +12331,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12348,7 +12357,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12374,7 +12383,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12400,7 +12409,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12426,7 +12435,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12452,7 +12461,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12478,7 +12487,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12504,7 +12513,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12530,7 +12539,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12556,7 +12565,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12582,7 +12591,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12608,7 +12617,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12634,7 +12643,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12660,7 +12669,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12686,7 +12695,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12712,7 +12721,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12738,7 +12747,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12764,7 +12773,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12790,7 +12799,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12816,7 +12825,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12842,7 +12851,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12868,7 +12877,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12894,7 +12903,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12920,7 +12929,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12946,7 +12955,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12972,7 +12981,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12998,7 +13007,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13024,7 +13033,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13050,7 +13059,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13076,7 +13085,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13102,7 +13111,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13128,7 +13137,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13154,7 +13163,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13180,7 +13189,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13206,7 +13215,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13232,7 +13241,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13258,7 +13267,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13284,7 +13293,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13310,7 +13319,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13336,7 +13345,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13362,7 +13371,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13388,7 +13397,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13414,7 +13423,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13440,7 +13449,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13466,7 +13475,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13492,7 +13501,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13518,7 +13527,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13544,7 +13553,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13570,7 +13579,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13596,7 +13605,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13622,7 +13631,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13648,7 +13657,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13674,7 +13683,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13700,7 +13709,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13726,7 +13735,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13752,7 +13761,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13778,7 +13787,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13804,7 +13813,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13830,7 +13839,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13856,7 +13865,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13882,7 +13891,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13908,7 +13917,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13934,7 +13943,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13960,7 +13969,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13986,7 +13995,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14012,7 +14021,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14038,7 +14047,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14064,7 +14073,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14090,7 +14099,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14116,7 +14125,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14142,7 +14151,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14168,7 +14177,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14194,7 +14203,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14220,7 +14229,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14246,7 +14255,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14272,7 +14281,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14298,7 +14307,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14324,7 +14333,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14350,7 +14359,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14376,7 +14385,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14402,7 +14411,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14428,7 +14437,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14454,7 +14463,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14480,7 +14489,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14506,7 +14515,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14532,7 +14541,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14558,7 +14567,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14584,7 +14593,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14610,7 +14619,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14636,7 +14645,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14662,7 +14671,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14688,7 +14697,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14714,7 +14723,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14740,7 +14749,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14766,7 +14775,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14792,7 +14801,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14818,7 +14827,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14844,7 +14853,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14870,7 +14879,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14896,7 +14905,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14922,7 +14931,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14948,7 +14957,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14974,7 +14983,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15000,7 +15009,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15026,7 +15035,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15052,7 +15061,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15078,7 +15087,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15104,7 +15113,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15130,7 +15139,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15156,7 +15165,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15182,7 +15191,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15208,7 +15217,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15234,7 +15243,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15260,7 +15269,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15286,7 +15295,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15312,7 +15321,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15338,7 +15347,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15364,7 +15373,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15390,7 +15399,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15416,7 +15425,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15442,7 +15451,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15468,7 +15477,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15494,7 +15503,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15520,7 +15529,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15546,7 +15555,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15572,7 +15581,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15598,7 +15607,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15624,7 +15633,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15650,7 +15659,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15676,7 +15685,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15702,7 +15711,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15728,7 +15737,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15754,7 +15763,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15780,7 +15789,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15806,7 +15815,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15832,7 +15841,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15858,7 +15867,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15884,7 +15893,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15910,7 +15919,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15936,7 +15945,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15962,7 +15971,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15988,7 +15997,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16014,7 +16023,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16040,7 +16049,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16066,7 +16075,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16092,7 +16101,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16118,7 +16127,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16144,7 +16153,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16170,7 +16179,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16196,7 +16205,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16222,7 +16231,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16248,7 +16257,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16274,7 +16283,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16300,7 +16309,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16326,7 +16335,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16352,7 +16361,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16378,7 +16387,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16404,7 +16413,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16430,7 +16439,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16456,7 +16465,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16482,7 +16491,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16508,7 +16517,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16534,7 +16543,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16560,7 +16569,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16586,7 +16595,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16612,7 +16621,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16638,7 +16647,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16664,7 +16673,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16690,7 +16699,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16716,7 +16725,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16742,7 +16751,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16768,7 +16777,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16794,7 +16803,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16820,7 +16829,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16846,7 +16855,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16872,7 +16881,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16898,7 +16907,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16924,7 +16933,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16950,7 +16959,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16976,7 +16985,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17002,7 +17011,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17028,7 +17037,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17054,7 +17063,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17080,7 +17089,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17106,7 +17115,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17132,7 +17141,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17158,7 +17167,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17184,7 +17193,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17210,7 +17219,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17236,7 +17245,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17262,7 +17271,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17288,7 +17297,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17314,7 +17323,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17340,7 +17349,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17366,7 +17375,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17392,7 +17401,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17418,7 +17427,7 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17444,7 +17453,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H585" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17470,7 +17479,7 @@
         <v>0.5</v>
       </c>
       <c r="H586" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17496,7 +17505,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H587" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17522,7 +17531,7 @@
         <v>0.5</v>
       </c>
       <c r="H588" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17548,7 +17557,7 @@
         <v>0.55</v>
       </c>
       <c r="H589" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17574,7 +17583,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17600,7 +17609,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H591" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17626,7 +17635,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H592" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17636,7 +17645,13 @@
       <c r="B593" t="s">
         <v>598</v>
       </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
       <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
         <v>1</v>
       </c>
       <c r="F593">
@@ -17646,7 +17661,79 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H593" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>599</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="G594">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H594" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
         <v>600</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>1</v>
+      </c>
+      <c r="F595">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="G595">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="H595" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>601</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G596">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H596" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="631">
   <si>
     <t>date</t>
   </si>
@@ -1832,6 +1832,15 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2255,7 +2264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2307,7 +2316,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2333,7 +2342,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2359,7 +2368,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2385,7 +2394,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2411,7 +2420,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2437,7 +2446,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2463,7 +2472,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2489,7 +2498,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2515,7 +2524,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2541,7 +2550,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2567,7 +2576,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2593,7 +2602,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2619,7 +2628,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2645,7 +2654,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2671,7 +2680,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2697,7 +2706,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2723,7 +2732,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2749,7 +2758,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2775,7 +2784,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2801,7 +2810,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2827,7 +2836,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2853,7 +2862,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2879,7 +2888,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2905,7 +2914,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2931,7 +2940,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2957,7 +2966,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2983,7 +2992,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3009,7 +3018,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3035,7 +3044,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3061,7 +3070,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3087,7 +3096,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3113,7 +3122,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3139,7 +3148,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3165,7 +3174,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3191,7 +3200,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3217,7 +3226,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3243,7 +3252,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3269,7 +3278,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3295,7 +3304,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3321,7 +3330,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3347,7 +3356,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3373,7 +3382,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3399,7 +3408,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3425,7 +3434,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3451,7 +3460,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3477,7 +3486,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3503,7 +3512,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3529,7 +3538,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3555,7 +3564,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3581,7 +3590,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3607,7 +3616,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3633,7 +3642,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3659,7 +3668,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3685,7 +3694,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3711,7 +3720,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3737,7 +3746,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3763,7 +3772,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3789,7 +3798,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3815,7 +3824,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3841,7 +3850,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3867,7 +3876,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3893,7 +3902,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3919,7 +3928,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3945,7 +3954,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3971,7 +3980,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3997,7 +4006,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4023,7 +4032,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4049,7 +4058,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4075,7 +4084,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4101,7 +4110,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4127,7 +4136,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4153,7 +4162,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4179,7 +4188,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4205,7 +4214,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4231,7 +4240,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4257,7 +4266,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4283,7 +4292,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4309,7 +4318,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4335,7 +4344,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4361,7 +4370,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4387,7 +4396,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4413,7 +4422,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4439,7 +4448,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4465,7 +4474,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4491,7 +4500,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4517,7 +4526,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4543,7 +4552,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4569,7 +4578,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4595,7 +4604,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4621,7 +4630,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4647,7 +4656,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4673,7 +4682,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4699,7 +4708,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4725,7 +4734,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4751,7 +4760,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4777,7 +4786,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4803,7 +4812,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4829,7 +4838,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4855,7 +4864,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4881,7 +4890,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4907,7 +4916,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4933,7 +4942,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4959,7 +4968,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4985,7 +4994,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5011,7 +5020,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5037,7 +5046,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5063,7 +5072,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5089,7 +5098,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5115,7 +5124,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5141,7 +5150,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5167,7 +5176,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5193,7 +5202,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5219,7 +5228,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5245,7 +5254,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5271,7 +5280,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5297,7 +5306,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5323,7 +5332,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5349,7 +5358,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5375,7 +5384,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5401,7 +5410,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5427,7 +5436,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5453,7 +5462,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5479,7 +5488,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5505,7 +5514,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5531,7 +5540,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5557,7 +5566,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5583,7 +5592,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5609,7 +5618,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5635,7 +5644,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5661,7 +5670,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5687,7 +5696,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5713,7 +5722,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5739,7 +5748,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5765,7 +5774,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5791,7 +5800,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5817,7 +5826,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5843,7 +5852,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5869,7 +5878,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5895,7 +5904,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5921,7 +5930,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5947,7 +5956,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5973,7 +5982,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5999,7 +6008,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6025,7 +6034,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6051,7 +6060,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6077,7 +6086,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6103,7 +6112,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6129,7 +6138,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6155,7 +6164,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6181,7 +6190,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6207,7 +6216,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6233,7 +6242,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6259,7 +6268,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6285,7 +6294,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6311,7 +6320,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6337,7 +6346,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6363,7 +6372,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6389,7 +6398,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6415,7 +6424,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6441,7 +6450,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6467,7 +6476,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6493,7 +6502,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6519,7 +6528,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6545,7 +6554,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6571,7 +6580,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6597,7 +6606,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6623,7 +6632,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6649,7 +6658,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6675,7 +6684,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6701,7 +6710,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6727,7 +6736,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6753,7 +6762,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6779,7 +6788,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6805,7 +6814,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6831,7 +6840,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6857,7 +6866,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6883,7 +6892,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6909,7 +6918,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6935,7 +6944,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6961,7 +6970,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6987,7 +6996,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7013,7 +7022,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7039,7 +7048,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7065,7 +7074,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7091,7 +7100,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7117,7 +7126,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7143,7 +7152,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7169,7 +7178,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7195,7 +7204,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7221,7 +7230,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7247,7 +7256,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7273,7 +7282,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7299,7 +7308,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7325,7 +7334,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7351,7 +7360,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7377,7 +7386,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7403,7 +7412,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7429,7 +7438,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7455,7 +7464,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7481,7 +7490,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7507,7 +7516,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7533,7 +7542,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7559,7 +7568,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7585,7 +7594,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7611,7 +7620,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7637,7 +7646,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7663,7 +7672,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7689,7 +7698,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7715,7 +7724,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7741,7 +7750,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7767,7 +7776,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7793,7 +7802,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7819,7 +7828,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7845,7 +7854,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7871,7 +7880,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7897,7 +7906,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7923,7 +7932,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7949,7 +7958,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7975,7 +7984,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8001,7 +8010,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8027,7 +8036,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8053,7 +8062,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8079,7 +8088,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8105,7 +8114,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8131,7 +8140,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8157,7 +8166,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8183,7 +8192,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8209,7 +8218,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8235,7 +8244,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8261,7 +8270,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8287,7 +8296,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8313,7 +8322,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8339,7 +8348,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8365,7 +8374,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8391,7 +8400,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8417,7 +8426,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8443,7 +8452,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8469,7 +8478,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8495,7 +8504,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8521,7 +8530,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8547,7 +8556,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8573,7 +8582,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8599,7 +8608,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8625,7 +8634,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8651,7 +8660,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8677,7 +8686,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8703,7 +8712,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8729,7 +8738,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8755,7 +8764,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8781,7 +8790,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8807,7 +8816,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8833,7 +8842,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8859,7 +8868,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8885,7 +8894,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8911,7 +8920,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8937,7 +8946,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8963,7 +8972,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8989,7 +8998,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9015,7 +9024,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9041,7 +9050,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9067,7 +9076,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9093,7 +9102,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9119,7 +9128,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9145,7 +9154,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9171,7 +9180,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9197,7 +9206,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9223,7 +9232,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9249,7 +9258,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9275,7 +9284,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9301,7 +9310,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9327,7 +9336,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9353,7 +9362,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9379,7 +9388,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9405,7 +9414,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9431,7 +9440,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9457,7 +9466,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9483,7 +9492,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9509,7 +9518,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9535,7 +9544,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9561,7 +9570,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9587,7 +9596,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9613,7 +9622,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9639,7 +9648,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9665,7 +9674,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9691,7 +9700,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9717,7 +9726,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9743,7 +9752,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9769,7 +9778,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9795,7 +9804,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9821,7 +9830,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9847,7 +9856,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9873,7 +9882,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9899,7 +9908,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9925,7 +9934,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9951,7 +9960,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9977,7 +9986,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10003,7 +10012,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10029,7 +10038,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10055,7 +10064,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10081,7 +10090,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10107,7 +10116,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10133,7 +10142,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10159,7 +10168,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10185,7 +10194,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10211,7 +10220,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10237,7 +10246,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10263,7 +10272,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10289,7 +10298,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10315,7 +10324,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10341,7 +10350,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10367,7 +10376,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10393,7 +10402,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10419,7 +10428,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10445,7 +10454,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10471,7 +10480,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10497,7 +10506,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10523,7 +10532,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10549,7 +10558,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10575,7 +10584,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10601,7 +10610,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10627,7 +10636,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10653,7 +10662,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10679,7 +10688,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10705,7 +10714,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10731,7 +10740,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10757,7 +10766,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10783,7 +10792,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10809,7 +10818,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10835,7 +10844,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10861,7 +10870,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10887,7 +10896,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10913,7 +10922,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10939,7 +10948,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10965,7 +10974,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10991,7 +11000,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11017,7 +11026,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11043,7 +11052,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11069,7 +11078,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11095,7 +11104,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11121,7 +11130,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11147,7 +11156,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11173,7 +11182,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11199,7 +11208,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11225,7 +11234,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11251,7 +11260,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11277,7 +11286,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11303,7 +11312,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11329,7 +11338,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11355,7 +11364,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11381,7 +11390,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11407,7 +11416,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11433,7 +11442,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11459,7 +11468,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11485,7 +11494,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11511,7 +11520,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11537,7 +11546,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11563,7 +11572,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11589,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11615,7 +11624,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11641,7 +11650,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11667,7 +11676,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11693,7 +11702,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11719,7 +11728,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11745,7 +11754,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11771,7 +11780,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11797,7 +11806,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11823,7 +11832,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11849,7 +11858,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11875,7 +11884,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11901,7 +11910,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11927,7 +11936,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11953,7 +11962,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11979,7 +11988,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12005,7 +12014,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12031,7 +12040,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12057,7 +12066,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12083,7 +12092,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12109,7 +12118,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12135,7 +12144,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12161,7 +12170,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12187,7 +12196,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12213,7 +12222,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12239,7 +12248,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12265,7 +12274,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12291,7 +12300,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12317,7 +12326,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12343,7 +12352,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12369,7 +12378,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12395,7 +12404,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12421,7 +12430,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12447,7 +12456,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12473,7 +12482,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12499,7 +12508,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12525,7 +12534,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12551,7 +12560,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12577,7 +12586,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12603,7 +12612,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12629,7 +12638,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12655,7 +12664,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12681,7 +12690,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12707,7 +12716,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12733,7 +12742,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12759,7 +12768,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12785,7 +12794,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12811,7 +12820,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12837,7 +12846,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12863,7 +12872,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12889,7 +12898,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12915,7 +12924,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12941,7 +12950,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12967,7 +12976,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12993,7 +13002,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13019,7 +13028,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13045,7 +13054,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13071,7 +13080,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13097,7 +13106,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13123,7 +13132,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13149,7 +13158,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13175,7 +13184,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13201,7 +13210,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13227,7 +13236,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13253,7 +13262,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13279,7 +13288,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13305,7 +13314,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13331,7 +13340,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13357,7 +13366,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13383,7 +13392,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13409,7 +13418,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13435,7 +13444,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13461,7 +13470,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13487,7 +13496,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13513,7 +13522,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13539,7 +13548,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13565,7 +13574,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13591,7 +13600,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13617,7 +13626,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13643,7 +13652,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13669,7 +13678,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13695,7 +13704,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13721,7 +13730,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13747,7 +13756,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13773,7 +13782,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13799,7 +13808,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13825,7 +13834,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13851,7 +13860,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13877,7 +13886,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13903,7 +13912,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13929,7 +13938,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13955,7 +13964,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13981,7 +13990,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14007,7 +14016,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14033,7 +14042,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14059,7 +14068,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14085,7 +14094,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14111,7 +14120,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14137,7 +14146,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14163,7 +14172,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14189,7 +14198,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14215,7 +14224,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14241,7 +14250,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14267,7 +14276,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14293,7 +14302,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14319,7 +14328,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14345,7 +14354,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14371,7 +14380,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14397,7 +14406,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14423,7 +14432,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14449,7 +14458,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14475,7 +14484,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14501,7 +14510,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14527,7 +14536,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14553,7 +14562,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14579,7 +14588,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14605,7 +14614,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14631,7 +14640,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14657,7 +14666,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14683,7 +14692,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14709,7 +14718,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14735,7 +14744,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14761,7 +14770,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14787,7 +14796,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14813,7 +14822,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14839,7 +14848,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14865,7 +14874,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14891,7 +14900,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14917,7 +14926,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14943,7 +14952,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14969,7 +14978,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14995,7 +15004,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15021,7 +15030,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15047,7 +15056,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15073,7 +15082,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15099,7 +15108,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15125,7 +15134,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15151,7 +15160,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15177,7 +15186,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15203,7 +15212,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15229,7 +15238,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15255,7 +15264,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15281,7 +15290,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15307,7 +15316,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15333,7 +15342,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15359,7 +15368,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15385,7 +15394,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15411,7 +15420,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15437,7 +15446,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15463,7 +15472,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15489,7 +15498,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15515,7 +15524,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15541,7 +15550,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15567,7 +15576,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15593,7 +15602,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15619,7 +15628,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15645,7 +15654,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15671,7 +15680,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15697,7 +15706,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15723,7 +15732,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15749,7 +15758,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15775,7 +15784,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15801,7 +15810,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15827,7 +15836,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15853,7 +15862,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15879,7 +15888,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15905,7 +15914,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15931,7 +15940,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15957,7 +15966,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15983,7 +15992,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16009,7 +16018,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16035,7 +16044,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16061,7 +16070,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16087,7 +16096,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16113,7 +16122,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16139,7 +16148,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16165,7 +16174,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16191,7 +16200,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16217,7 +16226,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16243,7 +16252,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16269,7 +16278,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16295,7 +16304,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16321,7 +16330,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16347,7 +16356,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16373,7 +16382,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16399,7 +16408,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16425,7 +16434,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16451,7 +16460,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16477,7 +16486,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16503,7 +16512,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16529,7 +16538,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16555,7 +16564,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16581,7 +16590,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16607,7 +16616,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16633,7 +16642,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16659,7 +16668,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16685,7 +16694,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16711,7 +16720,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16737,7 +16746,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16763,7 +16772,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16789,7 +16798,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16815,7 +16824,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16841,7 +16850,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16867,7 +16876,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16893,7 +16902,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16919,7 +16928,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16945,7 +16954,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16971,7 +16980,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16997,7 +17006,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17023,7 +17032,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17049,7 +17058,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17075,7 +17084,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17101,7 +17110,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17127,7 +17136,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17153,7 +17162,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17179,7 +17188,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17205,7 +17214,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17231,7 +17240,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17257,7 +17266,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17283,7 +17292,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17309,7 +17318,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17335,7 +17344,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17361,7 +17370,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17387,7 +17396,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17413,7 +17422,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17439,7 +17448,7 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17465,7 +17474,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H585" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17491,7 +17500,7 @@
         <v>0.5</v>
       </c>
       <c r="H586" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17517,7 +17526,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H587" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17543,7 +17552,7 @@
         <v>0.5</v>
       </c>
       <c r="H588" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17569,7 +17578,7 @@
         <v>0.55</v>
       </c>
       <c r="H589" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17595,7 +17604,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17621,7 +17630,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H591" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17647,7 +17656,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H592" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17673,7 +17682,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17699,7 +17708,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H594" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17725,7 +17734,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H595" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17751,7 +17760,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17777,7 +17786,7 @@
         <v>0.6</v>
       </c>
       <c r="H597" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17803,7 +17812,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H598" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17829,7 +17838,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H599" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17839,8 +17848,14 @@
       <c r="B600" t="s">
         <v>605</v>
       </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
       <c r="D600">
         <v>0</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
       </c>
       <c r="F600">
         <v>0.6833333333333332</v>
@@ -17849,7 +17864,79 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H600" t="s">
-        <v>618</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>606</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="G601">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H601" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>607</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G602">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H602" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>608</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="F603">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G603">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H603" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="632">
   <si>
     <t>date</t>
   </si>
@@ -1841,6 +1841,9 @@
   </si>
   <si>
     <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2264,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H603"/>
+  <dimension ref="A1:H604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2316,7 +2319,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2342,7 +2345,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2368,7 +2371,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2394,7 +2397,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2420,7 +2423,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2446,7 +2449,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2472,7 +2475,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2498,7 +2501,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2524,7 +2527,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2550,7 +2553,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2576,7 +2579,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2602,7 +2605,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2628,7 +2631,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2654,7 +2657,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2680,7 +2683,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2706,7 +2709,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2732,7 +2735,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2758,7 +2761,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2784,7 +2787,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2810,7 +2813,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2836,7 +2839,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2862,7 +2865,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2888,7 +2891,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2914,7 +2917,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2940,7 +2943,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2966,7 +2969,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2992,7 +2995,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3018,7 +3021,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3044,7 +3047,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3070,7 +3073,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3096,7 +3099,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3122,7 +3125,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3148,7 +3151,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3174,7 +3177,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3200,7 +3203,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3226,7 +3229,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3252,7 +3255,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3278,7 +3281,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3304,7 +3307,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3330,7 +3333,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3356,7 +3359,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3382,7 +3385,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3408,7 +3411,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3434,7 +3437,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3460,7 +3463,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3486,7 +3489,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3512,7 +3515,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3538,7 +3541,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3564,7 +3567,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3590,7 +3593,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3616,7 +3619,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3642,7 +3645,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3668,7 +3671,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3694,7 +3697,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3720,7 +3723,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3746,7 +3749,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3772,7 +3775,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3798,7 +3801,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3824,7 +3827,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3850,7 +3853,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3876,7 +3879,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3902,7 +3905,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3928,7 +3931,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3954,7 +3957,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3980,7 +3983,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4006,7 +4009,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4032,7 +4035,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4058,7 +4061,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4084,7 +4087,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4110,7 +4113,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4136,7 +4139,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4162,7 +4165,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4188,7 +4191,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4214,7 +4217,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4240,7 +4243,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4266,7 +4269,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4292,7 +4295,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4318,7 +4321,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4344,7 +4347,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4370,7 +4373,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4396,7 +4399,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4422,7 +4425,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4448,7 +4451,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4474,7 +4477,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4500,7 +4503,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4526,7 +4529,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4552,7 +4555,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4578,7 +4581,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4604,7 +4607,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4630,7 +4633,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4656,7 +4659,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4682,7 +4685,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4708,7 +4711,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4734,7 +4737,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4760,7 +4763,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4786,7 +4789,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4812,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4838,7 +4841,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4864,7 +4867,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4890,7 +4893,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4916,7 +4919,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4942,7 +4945,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4968,7 +4971,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4994,7 +4997,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5020,7 +5023,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5046,7 +5049,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5072,7 +5075,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5098,7 +5101,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5124,7 +5127,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5150,7 +5153,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5176,7 +5179,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5202,7 +5205,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5228,7 +5231,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5254,7 +5257,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5280,7 +5283,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5306,7 +5309,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5332,7 +5335,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5358,7 +5361,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5384,7 +5387,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5410,7 +5413,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5436,7 +5439,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5462,7 +5465,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5488,7 +5491,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5514,7 +5517,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5540,7 +5543,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5566,7 +5569,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5592,7 +5595,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5618,7 +5621,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5644,7 +5647,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5670,7 +5673,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5696,7 +5699,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5722,7 +5725,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5748,7 +5751,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5774,7 +5777,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5800,7 +5803,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5826,7 +5829,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5852,7 +5855,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5878,7 +5881,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5904,7 +5907,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5930,7 +5933,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5956,7 +5959,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5982,7 +5985,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6008,7 +6011,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6034,7 +6037,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6060,7 +6063,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6086,7 +6089,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6112,7 +6115,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6138,7 +6141,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6164,7 +6167,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6190,7 +6193,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6216,7 +6219,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6242,7 +6245,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6268,7 +6271,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6294,7 +6297,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6320,7 +6323,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6346,7 +6349,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6372,7 +6375,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6398,7 +6401,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6424,7 +6427,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6450,7 +6453,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6476,7 +6479,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6502,7 +6505,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6528,7 +6531,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6554,7 +6557,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6580,7 +6583,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6606,7 +6609,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6632,7 +6635,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6658,7 +6661,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6684,7 +6687,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6710,7 +6713,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6736,7 +6739,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6762,7 +6765,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6788,7 +6791,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6814,7 +6817,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6840,7 +6843,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6866,7 +6869,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6892,7 +6895,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6918,7 +6921,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6944,7 +6947,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6970,7 +6973,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6996,7 +6999,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7022,7 +7025,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7048,7 +7051,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7074,7 +7077,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7100,7 +7103,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7126,7 +7129,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7152,7 +7155,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7178,7 +7181,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7204,7 +7207,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7230,7 +7233,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7256,7 +7259,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7282,7 +7285,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7308,7 +7311,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7334,7 +7337,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7360,7 +7363,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7386,7 +7389,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7412,7 +7415,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7438,7 +7441,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7464,7 +7467,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7490,7 +7493,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7516,7 +7519,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7542,7 +7545,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7568,7 +7571,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7594,7 +7597,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7620,7 +7623,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7646,7 +7649,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7672,7 +7675,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7698,7 +7701,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7724,7 +7727,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7750,7 +7753,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7776,7 +7779,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7802,7 +7805,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7828,7 +7831,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7854,7 +7857,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7880,7 +7883,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7906,7 +7909,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7932,7 +7935,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7958,7 +7961,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7984,7 +7987,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8010,7 +8013,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8036,7 +8039,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8062,7 +8065,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8088,7 +8091,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8114,7 +8117,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8140,7 +8143,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8166,7 +8169,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8192,7 +8195,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8218,7 +8221,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8244,7 +8247,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8270,7 +8273,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8296,7 +8299,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8322,7 +8325,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8348,7 +8351,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8374,7 +8377,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8400,7 +8403,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8426,7 +8429,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8452,7 +8455,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8478,7 +8481,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8504,7 +8507,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8530,7 +8533,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8556,7 +8559,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8582,7 +8585,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8608,7 +8611,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8634,7 +8637,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8660,7 +8663,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8686,7 +8689,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8712,7 +8715,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8738,7 +8741,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8764,7 +8767,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8790,7 +8793,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8816,7 +8819,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8842,7 +8845,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8868,7 +8871,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8894,7 +8897,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8920,7 +8923,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8946,7 +8949,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8972,7 +8975,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8998,7 +9001,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9024,7 +9027,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9050,7 +9053,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9076,7 +9079,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9102,7 +9105,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9128,7 +9131,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9154,7 +9157,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9180,7 +9183,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9206,7 +9209,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9232,7 +9235,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9258,7 +9261,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9284,7 +9287,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9310,7 +9313,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9336,7 +9339,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9362,7 +9365,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9388,7 +9391,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9414,7 +9417,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9440,7 +9443,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9466,7 +9469,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9492,7 +9495,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9518,7 +9521,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9544,7 +9547,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9570,7 +9573,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9596,7 +9599,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9622,7 +9625,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9648,7 +9651,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9674,7 +9677,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9700,7 +9703,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9726,7 +9729,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9752,7 +9755,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9778,7 +9781,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9804,7 +9807,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9830,7 +9833,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9856,7 +9859,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9882,7 +9885,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9908,7 +9911,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9934,7 +9937,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9960,7 +9963,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9986,7 +9989,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10012,7 +10015,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10038,7 +10041,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10064,7 +10067,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10090,7 +10093,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10116,7 +10119,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10142,7 +10145,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10168,7 +10171,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10194,7 +10197,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10220,7 +10223,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10246,7 +10249,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10272,7 +10275,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10298,7 +10301,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10324,7 +10327,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10350,7 +10353,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10376,7 +10379,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10402,7 +10405,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10428,7 +10431,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10454,7 +10457,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10480,7 +10483,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10506,7 +10509,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10532,7 +10535,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10558,7 +10561,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10584,7 +10587,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10610,7 +10613,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10636,7 +10639,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10662,7 +10665,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10688,7 +10691,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10714,7 +10717,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10740,7 +10743,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10766,7 +10769,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10792,7 +10795,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10818,7 +10821,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10844,7 +10847,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10870,7 +10873,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10896,7 +10899,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10922,7 +10925,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10948,7 +10951,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10974,7 +10977,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11000,7 +11003,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11026,7 +11029,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11052,7 +11055,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11078,7 +11081,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11104,7 +11107,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11130,7 +11133,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11156,7 +11159,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11182,7 +11185,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11208,7 +11211,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11234,7 +11237,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11260,7 +11263,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11286,7 +11289,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11312,7 +11315,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11338,7 +11341,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11364,7 +11367,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11390,7 +11393,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11416,7 +11419,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11442,7 +11445,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11468,7 +11471,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11494,7 +11497,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11520,7 +11523,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11546,7 +11549,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11572,7 +11575,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11598,7 +11601,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11624,7 +11627,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11650,7 +11653,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11676,7 +11679,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11702,7 +11705,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11728,7 +11731,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11754,7 +11757,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11780,7 +11783,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11806,7 +11809,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11832,7 +11835,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11858,7 +11861,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11884,7 +11887,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11910,7 +11913,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11936,7 +11939,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11962,7 +11965,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11988,7 +11991,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12014,7 +12017,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12040,7 +12043,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12066,7 +12069,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12092,7 +12095,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12118,7 +12121,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12144,7 +12147,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12170,7 +12173,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12196,7 +12199,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12222,7 +12225,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12248,7 +12251,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12274,7 +12277,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12300,7 +12303,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12326,7 +12329,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12352,7 +12355,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12378,7 +12381,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12404,7 +12407,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12430,7 +12433,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12456,7 +12459,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12482,7 +12485,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12508,7 +12511,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12534,7 +12537,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12560,7 +12563,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12586,7 +12589,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12612,7 +12615,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12638,7 +12641,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12664,7 +12667,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12690,7 +12693,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12716,7 +12719,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12742,7 +12745,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12768,7 +12771,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12794,7 +12797,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12820,7 +12823,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12846,7 +12849,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12872,7 +12875,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12898,7 +12901,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12924,7 +12927,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12950,7 +12953,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12976,7 +12979,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13002,7 +13005,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13028,7 +13031,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13054,7 +13057,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13080,7 +13083,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13106,7 +13109,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13132,7 +13135,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13158,7 +13161,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13184,7 +13187,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13210,7 +13213,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13236,7 +13239,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13262,7 +13265,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13288,7 +13291,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13314,7 +13317,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13340,7 +13343,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13366,7 +13369,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13392,7 +13395,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13418,7 +13421,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13444,7 +13447,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13470,7 +13473,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13496,7 +13499,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13522,7 +13525,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13548,7 +13551,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13574,7 +13577,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13600,7 +13603,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13626,7 +13629,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13652,7 +13655,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13678,7 +13681,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13704,7 +13707,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13730,7 +13733,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13756,7 +13759,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13782,7 +13785,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13808,7 +13811,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13834,7 +13837,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13860,7 +13863,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13886,7 +13889,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13912,7 +13915,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13938,7 +13941,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13964,7 +13967,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13990,7 +13993,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14016,7 +14019,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14042,7 +14045,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14068,7 +14071,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14094,7 +14097,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14120,7 +14123,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14146,7 +14149,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14172,7 +14175,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14198,7 +14201,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14224,7 +14227,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14250,7 +14253,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14276,7 +14279,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14302,7 +14305,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14328,7 +14331,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14354,7 +14357,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14380,7 +14383,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14406,7 +14409,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14432,7 +14435,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14458,7 +14461,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14484,7 +14487,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14510,7 +14513,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14536,7 +14539,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14562,7 +14565,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14588,7 +14591,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14614,7 +14617,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14640,7 +14643,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14666,7 +14669,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14692,7 +14695,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14718,7 +14721,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14744,7 +14747,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14770,7 +14773,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14796,7 +14799,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14822,7 +14825,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14848,7 +14851,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14874,7 +14877,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14900,7 +14903,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14926,7 +14929,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14952,7 +14955,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14978,7 +14981,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15004,7 +15007,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15030,7 +15033,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15056,7 +15059,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15082,7 +15085,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15108,7 +15111,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15134,7 +15137,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15160,7 +15163,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15186,7 +15189,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15212,7 +15215,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15238,7 +15241,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15264,7 +15267,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15290,7 +15293,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15316,7 +15319,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15342,7 +15345,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15368,7 +15371,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15394,7 +15397,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15420,7 +15423,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15446,7 +15449,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15472,7 +15475,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15498,7 +15501,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15524,7 +15527,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15550,7 +15553,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15576,7 +15579,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15602,7 +15605,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15628,7 +15631,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15654,7 +15657,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15680,7 +15683,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15706,7 +15709,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15732,7 +15735,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15758,7 +15761,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15784,7 +15787,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15810,7 +15813,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15836,7 +15839,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15862,7 +15865,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15888,7 +15891,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15914,7 +15917,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15940,7 +15943,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15966,7 +15969,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15992,7 +15995,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16018,7 +16021,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16044,7 +16047,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16070,7 +16073,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16096,7 +16099,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16122,7 +16125,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16148,7 +16151,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16174,7 +16177,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16200,7 +16203,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16226,7 +16229,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16252,7 +16255,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16278,7 +16281,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16304,7 +16307,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16330,7 +16333,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16356,7 +16359,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16382,7 +16385,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16408,7 +16411,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16434,7 +16437,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16460,7 +16463,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16486,7 +16489,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16512,7 +16515,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16538,7 +16541,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16564,7 +16567,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16590,7 +16593,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16616,7 +16619,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16642,7 +16645,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16668,7 +16671,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16694,7 +16697,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16720,7 +16723,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16746,7 +16749,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16772,7 +16775,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16798,7 +16801,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16824,7 +16827,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16850,7 +16853,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16876,7 +16879,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16902,7 +16905,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16928,7 +16931,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16954,7 +16957,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16980,7 +16983,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17006,7 +17009,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17032,7 +17035,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17058,7 +17061,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17084,7 +17087,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17110,7 +17113,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17136,7 +17139,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17162,7 +17165,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17188,7 +17191,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17214,7 +17217,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17240,7 +17243,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17266,7 +17269,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17292,7 +17295,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17318,7 +17321,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17344,7 +17347,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17370,7 +17373,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17396,7 +17399,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17422,7 +17425,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17448,7 +17451,7 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17474,7 +17477,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H585" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17500,7 +17503,7 @@
         <v>0.5</v>
       </c>
       <c r="H586" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17526,7 +17529,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H587" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17552,7 +17555,7 @@
         <v>0.5</v>
       </c>
       <c r="H588" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17578,7 +17581,7 @@
         <v>0.55</v>
       </c>
       <c r="H589" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17604,7 +17607,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17630,7 +17633,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H591" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17656,7 +17659,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H592" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17682,7 +17685,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17708,7 +17711,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H594" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17734,7 +17737,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H595" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17760,7 +17763,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17786,7 +17789,7 @@
         <v>0.6</v>
       </c>
       <c r="H597" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17812,7 +17815,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H598" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17838,7 +17841,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H599" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17864,7 +17867,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H600" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17890,7 +17893,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H601" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17916,7 +17919,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H602" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17926,7 +17929,13 @@
       <c r="B603" t="s">
         <v>608</v>
       </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
       <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
         <v>1</v>
       </c>
       <c r="F603">
@@ -17936,7 +17945,27 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H603" t="s">
-        <v>612</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>609</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G604">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H604" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="638">
   <si>
     <t>date</t>
   </si>
@@ -1844,6 +1844,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2267,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H604"/>
+  <dimension ref="A1:H610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2319,7 +2337,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2345,7 +2363,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2371,7 +2389,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2397,7 +2415,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2423,7 +2441,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2449,7 +2467,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2475,7 +2493,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2501,7 +2519,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2527,7 +2545,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2553,7 +2571,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2579,7 +2597,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2605,7 +2623,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2631,7 +2649,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2657,7 +2675,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2683,7 +2701,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2709,7 +2727,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2735,7 +2753,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2761,7 +2779,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2787,7 +2805,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2813,7 +2831,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2839,7 +2857,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2865,7 +2883,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2891,7 +2909,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2917,7 +2935,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2943,7 +2961,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2969,7 +2987,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2995,7 +3013,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3021,7 +3039,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3047,7 +3065,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3073,7 +3091,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3099,7 +3117,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3125,7 +3143,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3151,7 +3169,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3177,7 +3195,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3203,7 +3221,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3229,7 +3247,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3255,7 +3273,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3281,7 +3299,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3307,7 +3325,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3333,7 +3351,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3359,7 +3377,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3385,7 +3403,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3411,7 +3429,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3437,7 +3455,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3463,7 +3481,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3489,7 +3507,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3515,7 +3533,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3541,7 +3559,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3567,7 +3585,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3593,7 +3611,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3619,7 +3637,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3645,7 +3663,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3671,7 +3689,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3697,7 +3715,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3723,7 +3741,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3749,7 +3767,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3775,7 +3793,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3801,7 +3819,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3827,7 +3845,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3853,7 +3871,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3879,7 +3897,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3905,7 +3923,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3931,7 +3949,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3957,7 +3975,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3983,7 +4001,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4009,7 +4027,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4035,7 +4053,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4061,7 +4079,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4087,7 +4105,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4113,7 +4131,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4139,7 +4157,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4165,7 +4183,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4191,7 +4209,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4217,7 +4235,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4243,7 +4261,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4269,7 +4287,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4295,7 +4313,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4321,7 +4339,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4347,7 +4365,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4373,7 +4391,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4399,7 +4417,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4425,7 +4443,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4451,7 +4469,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4477,7 +4495,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4503,7 +4521,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4529,7 +4547,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4555,7 +4573,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4581,7 +4599,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4607,7 +4625,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4633,7 +4651,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4659,7 +4677,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4685,7 +4703,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4711,7 +4729,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4737,7 +4755,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4763,7 +4781,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4789,7 +4807,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4815,7 +4833,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4841,7 +4859,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4867,7 +4885,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4893,7 +4911,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4919,7 +4937,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4945,7 +4963,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4971,7 +4989,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4997,7 +5015,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5023,7 +5041,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5049,7 +5067,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5075,7 +5093,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5101,7 +5119,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5127,7 +5145,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5153,7 +5171,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5179,7 +5197,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5205,7 +5223,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5231,7 +5249,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5257,7 +5275,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5283,7 +5301,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5309,7 +5327,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5335,7 +5353,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5361,7 +5379,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5387,7 +5405,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5413,7 +5431,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5439,7 +5457,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5465,7 +5483,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5491,7 +5509,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5517,7 +5535,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5543,7 +5561,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5569,7 +5587,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5595,7 +5613,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5621,7 +5639,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5647,7 +5665,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5673,7 +5691,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5699,7 +5717,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5725,7 +5743,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5751,7 +5769,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5777,7 +5795,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5803,7 +5821,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5829,7 +5847,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5855,7 +5873,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5881,7 +5899,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5907,7 +5925,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5933,7 +5951,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5959,7 +5977,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5985,7 +6003,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6011,7 +6029,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6037,7 +6055,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6063,7 +6081,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6089,7 +6107,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6115,7 +6133,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6141,7 +6159,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6167,7 +6185,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6193,7 +6211,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6219,7 +6237,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6245,7 +6263,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6271,7 +6289,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6297,7 +6315,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6323,7 +6341,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6349,7 +6367,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6375,7 +6393,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6401,7 +6419,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6427,7 +6445,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6453,7 +6471,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6479,7 +6497,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6505,7 +6523,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6531,7 +6549,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6557,7 +6575,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6583,7 +6601,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6609,7 +6627,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6635,7 +6653,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6661,7 +6679,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6687,7 +6705,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6713,7 +6731,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6739,7 +6757,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6765,7 +6783,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6791,7 +6809,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6817,7 +6835,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6843,7 +6861,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6869,7 +6887,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6895,7 +6913,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6921,7 +6939,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6947,7 +6965,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6973,7 +6991,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6999,7 +7017,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7025,7 +7043,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7051,7 +7069,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7077,7 +7095,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7103,7 +7121,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7129,7 +7147,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7155,7 +7173,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7181,7 +7199,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7207,7 +7225,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7233,7 +7251,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7259,7 +7277,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7285,7 +7303,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7311,7 +7329,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7337,7 +7355,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7363,7 +7381,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7389,7 +7407,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7415,7 +7433,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7441,7 +7459,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7467,7 +7485,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7493,7 +7511,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7519,7 +7537,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7545,7 +7563,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7571,7 +7589,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7597,7 +7615,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7623,7 +7641,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7649,7 +7667,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7675,7 +7693,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7701,7 +7719,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7727,7 +7745,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7753,7 +7771,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7779,7 +7797,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7805,7 +7823,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7831,7 +7849,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7857,7 +7875,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7883,7 +7901,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7909,7 +7927,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7935,7 +7953,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7961,7 +7979,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7987,7 +8005,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8013,7 +8031,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8039,7 +8057,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8065,7 +8083,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8091,7 +8109,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8117,7 +8135,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8143,7 +8161,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8169,7 +8187,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8195,7 +8213,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8221,7 +8239,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8247,7 +8265,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8273,7 +8291,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8299,7 +8317,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8325,7 +8343,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8351,7 +8369,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8377,7 +8395,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8403,7 +8421,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8429,7 +8447,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8455,7 +8473,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8481,7 +8499,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8507,7 +8525,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8533,7 +8551,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8559,7 +8577,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8585,7 +8603,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8611,7 +8629,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8637,7 +8655,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8663,7 +8681,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8689,7 +8707,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8715,7 +8733,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8741,7 +8759,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8767,7 +8785,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8793,7 +8811,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8819,7 +8837,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8845,7 +8863,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8871,7 +8889,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8897,7 +8915,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8923,7 +8941,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8949,7 +8967,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8975,7 +8993,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9001,7 +9019,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9027,7 +9045,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9053,7 +9071,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9079,7 +9097,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9105,7 +9123,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9131,7 +9149,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9157,7 +9175,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9183,7 +9201,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9209,7 +9227,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9235,7 +9253,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9261,7 +9279,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9287,7 +9305,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9313,7 +9331,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9339,7 +9357,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9365,7 +9383,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9391,7 +9409,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9417,7 +9435,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9443,7 +9461,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9469,7 +9487,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9495,7 +9513,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9521,7 +9539,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9547,7 +9565,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9573,7 +9591,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9599,7 +9617,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9625,7 +9643,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9651,7 +9669,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9677,7 +9695,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9703,7 +9721,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9729,7 +9747,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9755,7 +9773,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9781,7 +9799,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9807,7 +9825,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9833,7 +9851,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9859,7 +9877,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9885,7 +9903,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9911,7 +9929,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9937,7 +9955,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9963,7 +9981,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9989,7 +10007,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10015,7 +10033,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10041,7 +10059,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10067,7 +10085,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10093,7 +10111,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10119,7 +10137,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10145,7 +10163,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10171,7 +10189,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10197,7 +10215,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10223,7 +10241,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10249,7 +10267,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10275,7 +10293,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10301,7 +10319,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10327,7 +10345,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10353,7 +10371,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10379,7 +10397,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10405,7 +10423,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10431,7 +10449,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10457,7 +10475,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10483,7 +10501,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10509,7 +10527,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10535,7 +10553,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10561,7 +10579,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10587,7 +10605,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10613,7 +10631,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10639,7 +10657,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10665,7 +10683,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10691,7 +10709,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10717,7 +10735,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10743,7 +10761,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10769,7 +10787,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10795,7 +10813,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10821,7 +10839,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10847,7 +10865,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10873,7 +10891,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10899,7 +10917,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10925,7 +10943,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10951,7 +10969,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10977,7 +10995,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11003,7 +11021,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11029,7 +11047,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11055,7 +11073,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11081,7 +11099,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11107,7 +11125,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11133,7 +11151,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11159,7 +11177,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11185,7 +11203,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11211,7 +11229,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11237,7 +11255,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11263,7 +11281,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11289,7 +11307,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11315,7 +11333,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11341,7 +11359,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11367,7 +11385,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11393,7 +11411,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11419,7 +11437,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11445,7 +11463,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11471,7 +11489,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11497,7 +11515,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11523,7 +11541,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11549,7 +11567,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11575,7 +11593,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11601,7 +11619,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11627,7 +11645,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11653,7 +11671,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11679,7 +11697,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11705,7 +11723,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11731,7 +11749,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11757,7 +11775,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11783,7 +11801,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11809,7 +11827,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11835,7 +11853,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11861,7 +11879,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11887,7 +11905,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11913,7 +11931,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11939,7 +11957,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11965,7 +11983,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11991,7 +12009,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12017,7 +12035,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12043,7 +12061,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12069,7 +12087,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12095,7 +12113,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12121,7 +12139,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12147,7 +12165,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12173,7 +12191,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12199,7 +12217,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12225,7 +12243,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12251,7 +12269,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12277,7 +12295,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12303,7 +12321,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12329,7 +12347,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12355,7 +12373,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12381,7 +12399,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12407,7 +12425,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12433,7 +12451,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12459,7 +12477,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12485,7 +12503,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12511,7 +12529,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12537,7 +12555,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12563,7 +12581,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12589,7 +12607,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12615,7 +12633,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12641,7 +12659,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12667,7 +12685,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12693,7 +12711,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12719,7 +12737,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12745,7 +12763,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12771,7 +12789,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12797,7 +12815,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12823,7 +12841,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12849,7 +12867,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12875,7 +12893,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12901,7 +12919,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12927,7 +12945,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12953,7 +12971,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12979,7 +12997,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13005,7 +13023,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13031,7 +13049,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13057,7 +13075,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13083,7 +13101,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13109,7 +13127,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13135,7 +13153,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13161,7 +13179,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13187,7 +13205,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13213,7 +13231,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13239,7 +13257,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13265,7 +13283,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13291,7 +13309,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13317,7 +13335,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13343,7 +13361,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13369,7 +13387,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13395,7 +13413,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13421,7 +13439,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13447,7 +13465,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13473,7 +13491,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13499,7 +13517,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13525,7 +13543,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13551,7 +13569,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13577,7 +13595,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13603,7 +13621,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13629,7 +13647,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13655,7 +13673,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13681,7 +13699,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13707,7 +13725,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13733,7 +13751,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13759,7 +13777,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13785,7 +13803,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13811,7 +13829,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13837,7 +13855,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13863,7 +13881,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13889,7 +13907,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13915,7 +13933,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13941,7 +13959,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13967,7 +13985,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13993,7 +14011,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14019,7 +14037,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14045,7 +14063,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14071,7 +14089,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14097,7 +14115,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14123,7 +14141,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14149,7 +14167,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14175,7 +14193,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14201,7 +14219,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14227,7 +14245,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14253,7 +14271,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14279,7 +14297,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14305,7 +14323,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14331,7 +14349,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14357,7 +14375,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14383,7 +14401,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14409,7 +14427,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14435,7 +14453,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14461,7 +14479,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14487,7 +14505,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14513,7 +14531,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14539,7 +14557,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14565,7 +14583,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14591,7 +14609,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14617,7 +14635,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14643,7 +14661,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14669,7 +14687,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14695,7 +14713,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14721,7 +14739,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14747,7 +14765,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14773,7 +14791,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14799,7 +14817,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14825,7 +14843,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14851,7 +14869,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14877,7 +14895,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14903,7 +14921,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14929,7 +14947,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14955,7 +14973,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14981,7 +14999,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15007,7 +15025,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15033,7 +15051,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15059,7 +15077,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15085,7 +15103,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15111,7 +15129,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15137,7 +15155,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15163,7 +15181,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15189,7 +15207,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15215,7 +15233,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15241,7 +15259,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15267,7 +15285,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15293,7 +15311,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15319,7 +15337,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15345,7 +15363,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15371,7 +15389,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15397,7 +15415,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15423,7 +15441,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15449,7 +15467,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15475,7 +15493,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15501,7 +15519,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15527,7 +15545,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15553,7 +15571,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15579,7 +15597,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15605,7 +15623,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15631,7 +15649,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15657,7 +15675,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15683,7 +15701,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15709,7 +15727,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15735,7 +15753,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15761,7 +15779,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15787,7 +15805,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15813,7 +15831,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15839,7 +15857,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15865,7 +15883,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15891,7 +15909,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15917,7 +15935,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15943,7 +15961,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15969,7 +15987,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15995,7 +16013,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16021,7 +16039,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16047,7 +16065,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16073,7 +16091,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16099,7 +16117,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16125,7 +16143,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16151,7 +16169,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16177,7 +16195,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16203,7 +16221,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16229,7 +16247,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16255,7 +16273,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16281,7 +16299,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16307,7 +16325,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16333,7 +16351,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16359,7 +16377,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16385,7 +16403,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16411,7 +16429,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16437,7 +16455,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16463,7 +16481,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16489,7 +16507,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16515,7 +16533,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16541,7 +16559,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16567,7 +16585,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16593,7 +16611,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16619,7 +16637,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16645,7 +16663,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16671,7 +16689,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16697,7 +16715,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16723,7 +16741,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16749,7 +16767,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16775,7 +16793,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16801,7 +16819,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16827,7 +16845,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16853,7 +16871,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16879,7 +16897,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16905,7 +16923,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16931,7 +16949,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16957,7 +16975,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16983,7 +17001,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17009,7 +17027,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17035,7 +17053,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17061,7 +17079,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17087,7 +17105,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17113,7 +17131,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17139,7 +17157,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17165,7 +17183,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17191,7 +17209,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17217,7 +17235,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17243,7 +17261,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17269,7 +17287,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17295,7 +17313,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17321,7 +17339,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17347,7 +17365,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17373,7 +17391,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17399,7 +17417,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17425,7 +17443,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17451,7 +17469,7 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17477,7 +17495,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H585" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17503,7 +17521,7 @@
         <v>0.5</v>
       </c>
       <c r="H586" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17529,7 +17547,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H587" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17555,7 +17573,7 @@
         <v>0.5</v>
       </c>
       <c r="H588" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17581,7 +17599,7 @@
         <v>0.55</v>
       </c>
       <c r="H589" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17607,7 +17625,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17633,7 +17651,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H591" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17659,7 +17677,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H592" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17685,7 +17703,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17711,7 +17729,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H594" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17737,7 +17755,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H595" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17763,7 +17781,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17789,7 +17807,7 @@
         <v>0.6</v>
       </c>
       <c r="H597" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17815,7 +17833,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H598" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17841,7 +17859,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H599" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17867,7 +17885,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H600" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17893,7 +17911,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H601" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17919,7 +17937,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H602" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17945,7 +17963,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H603" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17955,8 +17973,14 @@
       <c r="B604" t="s">
         <v>609</v>
       </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
       <c r="D604">
         <v>0</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
       </c>
       <c r="F604">
         <v>0.6833333333333332</v>
@@ -17965,7 +17989,157 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H604" t="s">
-        <v>622</v>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>610</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G605">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H605" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" t="s">
+        <v>611</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="G606">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H606" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>612</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G607">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="H607" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" t="s">
+        <v>613</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G608">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="H608" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" t="s">
+        <v>614</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609">
+        <v>0.3</v>
+      </c>
+      <c r="G609">
+        <v>0.7</v>
+      </c>
+      <c r="H609" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>615</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="F610">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="G610">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="H610" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyCanalSOC.xlsx
+++ b/firebase_data_from_spyCanalSOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="641">
   <si>
     <t>date</t>
   </si>
@@ -1862,6 +1862,15 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>51.67</t>
@@ -2285,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H610"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2337,7 +2346,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2363,7 +2372,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2389,7 +2398,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2415,7 +2424,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2441,7 +2450,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H6" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2467,7 +2476,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2493,7 +2502,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H8" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2519,7 +2528,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H9" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2545,7 +2554,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2571,7 +2580,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H11" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2597,7 +2606,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H12" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2623,7 +2632,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H13" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2649,7 +2658,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H14" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2675,7 +2684,7 @@
         <v>0.3</v>
       </c>
       <c r="H15" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2701,7 +2710,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2727,7 +2736,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H17" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2753,7 +2762,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H18" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2779,7 +2788,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2805,7 +2814,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2831,7 +2840,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H21" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2857,7 +2866,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H22" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2883,7 +2892,7 @@
         <v>0.6</v>
       </c>
       <c r="H23" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2909,7 +2918,7 @@
         <v>0.75</v>
       </c>
       <c r="H24" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2935,7 +2944,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H25" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2961,7 +2970,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H26" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2987,7 +2996,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H27" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3013,7 +3022,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3039,7 +3048,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H29" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3065,7 +3074,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H30" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3091,7 +3100,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H31" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3117,7 +3126,7 @@
         <v>0.55</v>
       </c>
       <c r="H32" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3143,7 +3152,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H33" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3169,7 +3178,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3195,7 +3204,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3221,7 +3230,7 @@
         <v>0.45</v>
       </c>
       <c r="H36" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3247,7 +3256,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H37" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3273,7 +3282,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H38" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3299,7 +3308,7 @@
         <v>0.7</v>
       </c>
       <c r="H39" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3325,7 +3334,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H40" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3351,7 +3360,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H41" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3377,7 +3386,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H42" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3403,7 +3412,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3429,7 +3438,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H44" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3455,7 +3464,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H45" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3481,7 +3490,7 @@
         <v>0.6</v>
       </c>
       <c r="H46" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3507,7 +3516,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H47" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3533,7 +3542,7 @@
         <v>0.55</v>
       </c>
       <c r="H48" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3559,7 +3568,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H49" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3585,7 +3594,7 @@
         <v>0.45</v>
       </c>
       <c r="H50" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3611,7 +3620,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H51" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3637,7 +3646,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3663,7 +3672,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H53" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3689,7 +3698,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H54" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3715,7 +3724,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H55" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3741,7 +3750,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H56" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3767,7 +3776,7 @@
         <v>0.55</v>
       </c>
       <c r="H57" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3793,7 +3802,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H58" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3819,7 +3828,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H59" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3845,7 +3854,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H60" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3871,7 +3880,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H61" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3897,7 +3906,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H62" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3923,7 +3932,7 @@
         <v>0.7</v>
       </c>
       <c r="H63" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3949,7 +3958,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H64" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3975,7 +3984,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H65" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4001,7 +4010,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H66" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4027,7 +4036,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H67" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4053,7 +4062,7 @@
         <v>0.3</v>
       </c>
       <c r="H68" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4079,7 +4088,7 @@
         <v>0.6</v>
       </c>
       <c r="H69" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4105,7 +4114,7 @@
         <v>0.4</v>
       </c>
       <c r="H70" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4131,7 +4140,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H71" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4157,7 +4166,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4183,7 +4192,7 @@
         <v>0.7</v>
       </c>
       <c r="H73" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4209,7 +4218,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H74" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4235,7 +4244,7 @@
         <v>0.3</v>
       </c>
       <c r="H75" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4261,7 +4270,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H76" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4287,7 +4296,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H77" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4313,7 +4322,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H78" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4339,7 +4348,7 @@
         <v>0.6</v>
       </c>
       <c r="H79" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4365,7 +4374,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H80" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4391,7 +4400,7 @@
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4417,7 +4426,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H82" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4443,7 +4452,7 @@
         <v>0.35</v>
       </c>
       <c r="H83" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4469,7 +4478,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H84" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4495,7 +4504,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H85" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4521,7 +4530,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H86" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4547,7 +4556,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H87" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4573,7 +4582,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H88" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4599,7 +4608,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H89" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4625,7 +4634,7 @@
         <v>0.3</v>
       </c>
       <c r="H90" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4651,7 +4660,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H91" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4677,7 +4686,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H92" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4703,7 +4712,7 @@
         <v>0.55</v>
       </c>
       <c r="H93" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4729,7 +4738,7 @@
         <v>0.5</v>
       </c>
       <c r="H94" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4755,7 +4764,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H95" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4781,7 +4790,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4807,7 +4816,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H97" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4833,7 +4842,7 @@
         <v>0.6</v>
       </c>
       <c r="H98" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4859,7 +4868,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4885,7 +4894,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H100" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4911,7 +4920,7 @@
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4937,7 +4946,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H102" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4963,7 +4972,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H103" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4989,7 +4998,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H104" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5015,7 +5024,7 @@
         <v>0.45</v>
       </c>
       <c r="H105" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5041,7 +5050,7 @@
         <v>0.55</v>
       </c>
       <c r="H106" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5067,7 +5076,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H107" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5093,7 +5102,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H108" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5119,7 +5128,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H109" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5145,7 +5154,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H110" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5171,7 +5180,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H111" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5197,7 +5206,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H112" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5223,7 +5232,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H113" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5249,7 +5258,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H114" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5275,7 +5284,7 @@
         <v>0.5</v>
       </c>
       <c r="H115" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5301,7 +5310,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H116" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5327,7 +5336,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H117" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5353,7 +5362,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H118" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5379,7 +5388,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H119" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5405,7 +5414,7 @@
         <v>0.5</v>
       </c>
       <c r="H120" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5431,7 +5440,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H121" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5457,7 +5466,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H122" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5483,7 +5492,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H123" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5509,7 +5518,7 @@
         <v>0.5</v>
       </c>
       <c r="H124" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5535,7 +5544,7 @@
         <v>0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5561,7 +5570,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H126" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5587,7 +5596,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H127" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5613,7 +5622,7 @@
         <v>0.7</v>
       </c>
       <c r="H128" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5639,7 +5648,7 @@
         <v>0.55</v>
       </c>
       <c r="H129" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5665,7 +5674,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H130" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5691,7 +5700,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H131" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5717,7 +5726,7 @@
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5743,7 +5752,7 @@
         <v>0.65</v>
       </c>
       <c r="H133" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5769,7 +5778,7 @@
         <v>0.45</v>
       </c>
       <c r="H134" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5795,7 +5804,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H135" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5821,7 +5830,7 @@
         <v>0.5</v>
       </c>
       <c r="H136" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5847,7 +5856,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H137" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5873,7 +5882,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H138" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5899,7 +5908,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H139" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5925,7 +5934,7 @@
         <v>0.6</v>
       </c>
       <c r="H140" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5951,7 +5960,7 @@
         <v>0.45</v>
       </c>
       <c r="H141" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5977,7 +5986,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H142" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6003,7 +6012,7 @@
         <v>0.4</v>
       </c>
       <c r="H143" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6029,7 +6038,7 @@
         <v>0.45</v>
       </c>
       <c r="H144" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6055,7 +6064,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H145" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6081,7 +6090,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H146" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6107,7 +6116,7 @@
         <v>0.45</v>
       </c>
       <c r="H147" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6133,7 +6142,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H148" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6159,7 +6168,7 @@
         <v>0.65</v>
       </c>
       <c r="H149" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6185,7 +6194,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H150" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6211,7 +6220,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H151" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6237,7 +6246,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H152" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6263,7 +6272,7 @@
         <v>0.45</v>
       </c>
       <c r="H153" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6289,7 +6298,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H154" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6315,7 +6324,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H155" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6341,7 +6350,7 @@
         <v>0.65</v>
       </c>
       <c r="H156" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6367,7 +6376,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H157" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6393,7 +6402,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H158" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6419,7 +6428,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H159" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6445,7 +6454,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H160" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6471,7 +6480,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H161" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6497,7 +6506,7 @@
         <v>0.3</v>
       </c>
       <c r="H162" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6523,7 +6532,7 @@
         <v>0.45</v>
       </c>
       <c r="H163" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6549,7 +6558,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H164" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6575,7 +6584,7 @@
         <v>0.55</v>
       </c>
       <c r="H165" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6601,7 +6610,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H166" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6627,7 +6636,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H167" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6653,7 +6662,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H168" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6679,7 +6688,7 @@
         <v>0.5</v>
       </c>
       <c r="H169" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6705,7 +6714,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H170" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6731,7 +6740,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H171" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6757,7 +6766,7 @@
         <v>0.4</v>
       </c>
       <c r="H172" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6783,7 +6792,7 @@
         <v>0.6</v>
       </c>
       <c r="H173" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6809,7 +6818,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H174" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6835,7 +6844,7 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6861,7 +6870,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H176" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6887,7 +6896,7 @@
         <v>0.55</v>
       </c>
       <c r="H177" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6913,7 +6922,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H178" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6939,7 +6948,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H179" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6965,7 +6974,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6991,7 +7000,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H181" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7017,7 +7026,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H182" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7043,7 +7052,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H183" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7069,7 +7078,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H184" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7095,7 +7104,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H185" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7121,7 +7130,7 @@
         <v>0.55</v>
       </c>
       <c r="H186" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7147,7 +7156,7 @@
         <v>0.45</v>
       </c>
       <c r="H187" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7173,7 +7182,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H188" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7199,7 +7208,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H189" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7225,7 +7234,7 @@
         <v>0.45</v>
       </c>
       <c r="H190" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7251,7 +7260,7 @@
         <v>0.6</v>
       </c>
       <c r="H191" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7277,7 +7286,7 @@
         <v>0.45</v>
       </c>
       <c r="H192" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7303,7 +7312,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H193" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7329,7 +7338,7 @@
         <v>0.65</v>
       </c>
       <c r="H194" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7355,7 +7364,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H195" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7381,7 +7390,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H196" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7407,7 +7416,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7433,7 +7442,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H198" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7459,7 +7468,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H199" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7485,7 +7494,7 @@
         <v>0.65</v>
       </c>
       <c r="H200" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7511,7 +7520,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7537,7 +7546,7 @@
         <v>0.7</v>
       </c>
       <c r="H202" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7563,7 +7572,7 @@
         <v>0.45</v>
       </c>
       <c r="H203" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7589,7 +7598,7 @@
         <v>0.45</v>
       </c>
       <c r="H204" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7615,7 +7624,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H205" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7641,7 +7650,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H206" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7667,7 +7676,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H207" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7693,7 +7702,7 @@
         <v>0.5</v>
       </c>
       <c r="H208" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7719,7 +7728,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H209" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7745,7 +7754,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H210" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7771,7 +7780,7 @@
         <v>0.7</v>
       </c>
       <c r="H211" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7797,7 +7806,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H212" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7823,7 +7832,7 @@
         <v>0.7</v>
       </c>
       <c r="H213" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7849,7 +7858,7 @@
         <v>0.65</v>
       </c>
       <c r="H214" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7875,7 +7884,7 @@
         <v>0.35</v>
       </c>
       <c r="H215" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7901,7 +7910,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H216" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7927,7 +7936,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H217" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7953,7 +7962,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H218" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7979,7 +7988,7 @@
         <v>0.55</v>
       </c>
       <c r="H219" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8005,7 +8014,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H220" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8031,7 +8040,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H221" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8057,7 +8066,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H222" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8083,7 +8092,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H223" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8109,7 +8118,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H224" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8135,7 +8144,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H225" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8161,7 +8170,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H226" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8187,7 +8196,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H227" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8213,7 +8222,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H228" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8239,7 +8248,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H229" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8265,7 +8274,7 @@
         <v>0.6</v>
       </c>
       <c r="H230" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8291,7 +8300,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H231" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8317,7 +8326,7 @@
         <v>0.5</v>
       </c>
       <c r="H232" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8343,7 +8352,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H233" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8369,7 +8378,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H234" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8395,7 +8404,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H235" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8421,7 +8430,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H236" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8447,7 +8456,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H237" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8473,7 +8482,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H238" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8499,7 +8508,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H239" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8525,7 +8534,7 @@
         <v>0.5</v>
       </c>
       <c r="H240" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8551,7 +8560,7 @@
         <v>0.75</v>
       </c>
       <c r="H241" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8577,7 +8586,7 @@
         <v>0.65</v>
       </c>
       <c r="H242" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8603,7 +8612,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H243" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8629,7 +8638,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H244" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8655,7 +8664,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H245" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8681,7 +8690,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H246" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8707,7 +8716,7 @@
         <v>0.65</v>
       </c>
       <c r="H247" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8733,7 +8742,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H248" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8759,7 +8768,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H249" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8785,7 +8794,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H250" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8811,7 +8820,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H251" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8837,7 +8846,7 @@
         <v>0.5</v>
       </c>
       <c r="H252" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8863,7 +8872,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H253" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8889,7 +8898,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H254" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8915,7 +8924,7 @@
         <v>0.55</v>
       </c>
       <c r="H255" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8941,7 +8950,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H256" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8967,7 +8976,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H257" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8993,7 +9002,7 @@
         <v>0.65</v>
       </c>
       <c r="H258" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9019,7 +9028,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H259" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9045,7 +9054,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H260" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9071,7 +9080,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H261" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9097,7 +9106,7 @@
         <v>0.6</v>
       </c>
       <c r="H262" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9123,7 +9132,7 @@
         <v>0.75</v>
       </c>
       <c r="H263" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9149,7 +9158,7 @@
         <v>0.4</v>
       </c>
       <c r="H264" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9175,7 +9184,7 @@
         <v>0.6</v>
       </c>
       <c r="H265" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9201,7 +9210,7 @@
         <v>0.6</v>
       </c>
       <c r="H266" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9227,7 +9236,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H267" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9253,7 +9262,7 @@
         <v>0.55</v>
       </c>
       <c r="H268" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9279,7 +9288,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H269" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9305,7 +9314,7 @@
         <v>0.65</v>
       </c>
       <c r="H270" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9331,7 +9340,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H271" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9357,7 +9366,7 @@
         <v>0.2166666666666667</v>
       </c>
       <c r="H272" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9383,7 +9392,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H273" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9409,7 +9418,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H274" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9435,7 +9444,7 @@
         <v>0.9166666666666665</v>
       </c>
       <c r="H275" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9461,7 +9470,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H276" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9487,7 +9496,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H277" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9513,7 +9522,7 @@
         <v>0.55</v>
       </c>
       <c r="H278" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9539,7 +9548,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H279" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9565,7 +9574,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H280" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9591,7 +9600,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H281" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9617,7 +9626,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H282" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9643,7 +9652,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H283" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9669,7 +9678,7 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="H284" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9695,7 +9704,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H285" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9721,7 +9730,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H286" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9747,7 +9756,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H287" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9773,7 +9782,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H288" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9799,7 +9808,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H289" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9825,7 +9834,7 @@
         <v>0.55</v>
       </c>
       <c r="H290" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9851,7 +9860,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H291" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9877,7 +9886,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H292" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9903,7 +9912,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H293" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9929,7 +9938,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H294" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9955,7 +9964,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H295" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9981,7 +9990,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H296" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10007,7 +10016,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H297" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10033,7 +10042,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H298" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10059,7 +10068,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H299" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10085,7 +10094,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H300" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10111,7 +10120,7 @@
         <v>0.5</v>
       </c>
       <c r="H301" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10137,7 +10146,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H302" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10163,7 +10172,7 @@
         <v>0.5</v>
       </c>
       <c r="H303" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10189,7 +10198,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H304" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10215,7 +10224,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10241,7 +10250,7 @@
         <v>0.45</v>
       </c>
       <c r="H306" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10267,7 +10276,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H307" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10293,7 +10302,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H308" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10319,7 +10328,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H309" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10345,7 +10354,7 @@
         <v>0.6</v>
       </c>
       <c r="H310" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10371,7 +10380,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H311" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10397,7 +10406,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H312" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10423,7 +10432,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H313" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10449,7 +10458,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H314" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10475,7 +10484,7 @@
         <v>0.7</v>
       </c>
       <c r="H315" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10501,7 +10510,7 @@
         <v>0.45</v>
       </c>
       <c r="H316" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10527,7 +10536,7 @@
         <v>0.7</v>
       </c>
       <c r="H317" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10553,7 +10562,7 @@
         <v>0.5</v>
       </c>
       <c r="H318" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10579,7 +10588,7 @@
         <v>0.4</v>
       </c>
       <c r="H319" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10605,7 +10614,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H320" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10631,7 +10640,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H321" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10657,7 +10666,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10683,7 +10692,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H323" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10709,7 +10718,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H324" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10735,7 +10744,7 @@
         <v>0.4</v>
       </c>
       <c r="H325" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10761,7 +10770,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H326" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10787,7 +10796,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H327" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10813,7 +10822,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H328" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10839,7 +10848,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H329" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10865,7 +10874,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H330" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10891,7 +10900,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H331" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10917,7 +10926,7 @@
         <v>0.45</v>
       </c>
       <c r="H332" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10943,7 +10952,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H333" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10969,7 +10978,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H334" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10995,7 +11004,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H335" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11021,7 +11030,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H336" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11047,7 +11056,7 @@
         <v>0.55</v>
       </c>
       <c r="H337" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11073,7 +11082,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H338" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11099,7 +11108,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H339" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11125,7 +11134,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H340" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11151,7 +11160,7 @@
         <v>0.5</v>
       </c>
       <c r="H341" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11177,7 +11186,7 @@
         <v>0.5</v>
       </c>
       <c r="H342" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11203,7 +11212,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H343" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11229,7 +11238,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H344" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11255,7 +11264,7 @@
         <v>0.5</v>
       </c>
       <c r="H345" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11281,7 +11290,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H346" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11307,7 +11316,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H347" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11333,7 +11342,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H348" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11359,7 +11368,7 @@
         <v>0.55</v>
       </c>
       <c r="H349" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11385,7 +11394,7 @@
         <v>0.8166666666666668</v>
       </c>
       <c r="H350" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11411,7 +11420,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H351" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11437,7 +11446,7 @@
         <v>0.7</v>
       </c>
       <c r="H352" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11463,7 +11472,7 @@
         <v>0.45</v>
       </c>
       <c r="H353" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11489,7 +11498,7 @@
         <v>0.55</v>
       </c>
       <c r="H354" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11515,7 +11524,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H355" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11541,7 +11550,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H356" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11567,7 +11576,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H357" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11593,7 +11602,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H358" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11619,7 +11628,7 @@
         <v>0.5</v>
       </c>
       <c r="H359" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11645,7 +11654,7 @@
         <v>0.5</v>
       </c>
       <c r="H360" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11671,7 +11680,7 @@
         <v>0.5</v>
       </c>
       <c r="H361" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11697,7 +11706,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11723,7 +11732,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H363" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11749,7 +11758,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H364" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11775,7 +11784,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H365" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11801,7 +11810,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H366" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11827,7 +11836,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H367" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11853,7 +11862,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="H368" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11879,7 +11888,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H369" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11905,7 +11914,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H370" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11931,7 +11940,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H371" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11957,7 +11966,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H372" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11983,7 +11992,7 @@
         <v>0.65</v>
       </c>
       <c r="H373" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12009,7 +12018,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H374" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12035,7 +12044,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H375" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12061,7 +12070,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H376" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12087,7 +12096,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H377" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12113,7 +12122,7 @@
         <v>0.55</v>
       </c>
       <c r="H378" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12139,7 +12148,7 @@
         <v>0.6</v>
       </c>
       <c r="H379" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12165,7 +12174,7 @@
         <v>0.5</v>
       </c>
       <c r="H380" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12191,7 +12200,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H381" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12217,7 +12226,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H382" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12243,7 +12252,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H383" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12269,7 +12278,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H384" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12295,7 +12304,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H385" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12321,7 +12330,7 @@
         <v>0.6</v>
       </c>
       <c r="H386" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12347,7 +12356,7 @@
         <v>0.65</v>
       </c>
       <c r="H387" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12373,7 +12382,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H388" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12399,7 +12408,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H389" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12425,7 +12434,7 @@
         <v>0.45</v>
       </c>
       <c r="H390" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12451,7 +12460,7 @@
         <v>0.5</v>
       </c>
       <c r="H391" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12477,7 +12486,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H392" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12503,7 +12512,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H393" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12529,7 +12538,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H394" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12555,7 +12564,7 @@
         <v>0.65</v>
       </c>
       <c r="H395" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12581,7 +12590,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H396" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12607,7 +12616,7 @@
         <v>0.65</v>
       </c>
       <c r="H397" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12633,7 +12642,7 @@
         <v>0.6</v>
       </c>
       <c r="H398" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12659,7 +12668,7 @@
         <v>0.5</v>
       </c>
       <c r="H399" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12685,7 +12694,7 @@
         <v>0.55</v>
       </c>
       <c r="H400" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12711,7 +12720,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H401" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12737,7 +12746,7 @@
         <v>0.65</v>
       </c>
       <c r="H402" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12763,7 +12772,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H403" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12789,7 +12798,7 @@
         <v>0.7</v>
       </c>
       <c r="H404" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12815,7 +12824,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H405" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12841,7 +12850,7 @@
         <v>0.45</v>
       </c>
       <c r="H406" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12867,7 +12876,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H407" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12893,7 +12902,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H408" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12919,7 +12928,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H409" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12945,7 +12954,7 @@
         <v>0.65</v>
       </c>
       <c r="H410" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12971,7 +12980,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H411" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12997,7 +13006,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H412" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13023,7 +13032,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H413" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13049,7 +13058,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H414" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13075,7 +13084,7 @@
         <v>0.6</v>
       </c>
       <c r="H415" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13101,7 +13110,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H416" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13127,7 +13136,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H417" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13153,7 +13162,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H418" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13179,7 +13188,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H419" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13205,7 +13214,7 @@
         <v>0.65</v>
       </c>
       <c r="H420" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13231,7 +13240,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H421" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13257,7 +13266,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H422" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13283,7 +13292,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H423" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13309,7 +13318,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H424" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13335,7 +13344,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H425" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13361,7 +13370,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H426" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13387,7 +13396,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H427" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13413,7 +13422,7 @@
         <v>0.5</v>
       </c>
       <c r="H428" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13439,7 +13448,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H429" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13465,7 +13474,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H430" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13491,7 +13500,7 @@
         <v>0.6</v>
       </c>
       <c r="H431" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13517,7 +13526,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H432" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13543,7 +13552,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H433" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13569,7 +13578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H434" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13595,7 +13604,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H435" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13621,7 +13630,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13647,7 +13656,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H437" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13673,7 +13682,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13699,7 +13708,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H439" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13725,7 +13734,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H440" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13751,7 +13760,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H441" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13777,7 +13786,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H442" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13803,7 +13812,7 @@
         <v>0.5</v>
       </c>
       <c r="H443" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13829,7 +13838,7 @@
         <v>0.55</v>
       </c>
       <c r="H444" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13855,7 +13864,7 @@
         <v>0.55</v>
       </c>
       <c r="H445" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13881,7 +13890,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H446" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13907,7 +13916,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H447" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13933,7 +13942,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H448" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13959,7 +13968,7 @@
         <v>0.45</v>
       </c>
       <c r="H449" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13985,7 +13994,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H450" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14011,7 +14020,7 @@
         <v>0.55</v>
       </c>
       <c r="H451" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14037,7 +14046,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H452" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14063,7 +14072,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H453" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14089,7 +14098,7 @@
         <v>0.6</v>
       </c>
       <c r="H454" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14115,7 +14124,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H455" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14141,7 +14150,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H456" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14167,7 +14176,7 @@
         <v>0.6</v>
       </c>
       <c r="H457" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14193,7 +14202,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H458" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14219,7 +14228,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H459" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14245,7 +14254,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H460" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14271,7 +14280,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H461" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14297,7 +14306,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H462" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14323,7 +14332,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H463" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14349,7 +14358,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H464" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14375,7 +14384,7 @@
         <v>0.5</v>
       </c>
       <c r="H465" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14401,7 +14410,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H466" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14427,7 +14436,7 @@
         <v>0.75</v>
       </c>
       <c r="H467" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14453,7 +14462,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H468" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14479,7 +14488,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H469" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14505,7 +14514,7 @@
         <v>0.55</v>
       </c>
       <c r="H470" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14531,7 +14540,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H471" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14557,7 +14566,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H472" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14583,7 +14592,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H473" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14609,7 +14618,7 @@
         <v>0.6</v>
       </c>
       <c r="H474" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14635,7 +14644,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H475" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14661,7 +14670,7 @@
         <v>0.6</v>
       </c>
       <c r="H476" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14687,7 +14696,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H477" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14713,7 +14722,7 @@
         <v>0.55</v>
       </c>
       <c r="H478" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14739,7 +14748,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H479" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14765,7 +14774,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H480" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14791,7 +14800,7 @@
         <v>0.55</v>
       </c>
       <c r="H481" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14817,7 +14826,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H482" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14843,7 +14852,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H483" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14869,7 +14878,7 @@
         <v>0.7166666666666667</v>
       </c>
       <c r="H484" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14895,7 +14904,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H485" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14921,7 +14930,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H486" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14947,7 +14956,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H487" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14973,7 +14982,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H488" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14999,7 +15008,7 @@
         <v>0.55</v>
       </c>
       <c r="H489" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15025,7 +15034,7 @@
         <v>0.6</v>
       </c>
       <c r="H490" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15051,7 +15060,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H491" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15077,7 +15086,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H492" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15103,7 +15112,7 @@
         <v>0.8</v>
       </c>
       <c r="H493" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15129,7 +15138,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H494" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15155,7 +15164,7 @@
         <v>0.5</v>
       </c>
       <c r="H495" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15181,7 +15190,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H496" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15207,7 +15216,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H497" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15233,7 +15242,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H498" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15259,7 +15268,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H499" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15285,7 +15294,7 @@
         <v>0.7833333333333333</v>
       </c>
       <c r="H500" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15311,7 +15320,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H501" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15337,7 +15346,7 @@
         <v>0.3833333333333334</v>
       </c>
       <c r="H502" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15363,7 +15372,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H503" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15389,7 +15398,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H504" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15415,7 +15424,7 @@
         <v>0.7</v>
       </c>
       <c r="H505" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15441,7 +15450,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H506" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15467,7 +15476,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H507" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15493,7 +15502,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="H508" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15519,7 +15528,7 @@
         <v>0.55</v>
       </c>
       <c r="H509" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15545,7 +15554,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H510" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15571,7 +15580,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H511" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15597,7 +15606,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H512" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15623,7 +15632,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H513" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15649,7 +15658,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H514" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15675,7 +15684,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H515" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15701,7 +15710,7 @@
         <v>0.55</v>
       </c>
       <c r="H516" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15727,7 +15736,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H517" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15753,7 +15762,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H518" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15779,7 +15788,7 @@
         <v>0.5</v>
       </c>
       <c r="H519" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15805,7 +15814,7 @@
         <v>0.8</v>
       </c>
       <c r="H520" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15831,7 +15840,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H521" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15857,7 +15866,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H522" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15883,7 +15892,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H523" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15909,7 +15918,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H524" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15935,7 +15944,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H525" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15961,7 +15970,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="H526" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15987,7 +15996,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H527" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16013,7 +16022,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H528" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16039,7 +16048,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H529" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16065,7 +16074,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H530" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16091,7 +16100,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H531" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16117,7 +16126,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H532" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16143,7 +16152,7 @@
         <v>0.65</v>
       </c>
       <c r="H533" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16169,7 +16178,7 @@
         <v>0.6</v>
       </c>
       <c r="H534" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16195,7 +16204,7 @@
         <v>0.4</v>
       </c>
       <c r="H535" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16221,7 +16230,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H536" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16247,7 +16256,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H537" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16273,7 +16282,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H538" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16299,7 +16308,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H539" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16325,7 +16334,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H540" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16351,7 +16360,7 @@
         <v>0.55</v>
       </c>
       <c r="H541" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16377,7 +16386,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H542" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16403,7 +16412,7 @@
         <v>0.65</v>
       </c>
       <c r="H543" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16429,7 +16438,7 @@
         <v>0.55</v>
       </c>
       <c r="H544" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16455,7 +16464,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="H545" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16481,7 +16490,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H546" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16507,7 +16516,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H547" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16533,7 +16542,7 @@
         <v>0.5</v>
       </c>
       <c r="H548" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16559,7 +16568,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H549" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16585,7 +16594,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H550" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16611,7 +16620,7 @@
         <v>0.45</v>
       </c>
       <c r="H551" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16637,7 +16646,7 @@
         <v>0.5</v>
       </c>
       <c r="H552" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16663,7 +16672,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H553" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16689,7 +16698,7 @@
         <v>0.6</v>
       </c>
       <c r="H554" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16715,7 +16724,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H555" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16741,7 +16750,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H556" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16767,7 +16776,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H557" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16793,7 +16802,7 @@
         <v>0.45</v>
       </c>
       <c r="H558" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16819,7 +16828,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H559" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16845,7 +16854,7 @@
         <v>0.5</v>
       </c>
       <c r="H560" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16871,7 +16880,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H561" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16897,7 +16906,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H562" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16923,7 +16932,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H563" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16949,7 +16958,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H564" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16975,7 +16984,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H565" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17001,7 +17010,7 @@
         <v>0.55</v>
       </c>
       <c r="H566" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17027,7 +17036,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H567" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17053,7 +17062,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H568" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17079,7 +17088,7 @@
         <v>0.35</v>
       </c>
       <c r="H569" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17105,7 +17114,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="H570" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17131,7 +17140,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H571" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17157,7 +17166,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H572" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17183,7 +17192,7 @@
         <v>0.6</v>
       </c>
       <c r="H573" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17209,7 +17218,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H574" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17235,7 +17244,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H575" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17261,7 +17270,7 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="H576" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17287,7 +17296,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H577" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17313,7 +17322,7 @@
         <v>0.4</v>
       </c>
       <c r="H578" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17339,7 +17348,7 @@
         <v>0.4</v>
       </c>
       <c r="H579" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17365,7 +17374,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H580" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17391,7 +17400,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H581" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17417,7 +17426,7 @@
         <v>0.4</v>
       </c>
       <c r="H582" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17443,7 +17452,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="H583" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17469,7 +17478,7 @@
         <v>0.65</v>
       </c>
       <c r="H584" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17495,7 +17504,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H585" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17521,7 +17530,7 @@
         <v>0.5</v>
       </c>
       <c r="H586" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17547,7 +17556,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H587" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17573,7 +17582,7 @@
         <v>0.5</v>
       </c>
       <c r="H588" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17599,7 +17608,7 @@
         <v>0.55</v>
       </c>
       <c r="H589" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17625,7 +17634,7 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H590" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17651,7 +17660,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H591" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17677,7 +17686,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H592" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17703,7 +17712,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H593" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17729,7 +17738,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H594" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17755,7 +17764,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="H595" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17781,7 +17790,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H596" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17807,7 +17816,7 @@
         <v>0.6</v>
       </c>
       <c r="H597" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17833,7 +17842,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H598" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17859,7 +17868,7 @@
         <v>0.6833333333333332</v>
       </c>
       <c r="H599" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17885,7 +17894,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H600" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17911,7 +17920,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H601" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17937,7 +17946,7 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H602" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17963,7 +17972,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H603" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17989,7 +17998,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H604" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -18015,7 +18024,7 @@
         <v>0.3166666666666667</v>
       </c>
       <c r="H605" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -18041,7 +18050,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="H606" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -18067,7 +18076,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H607" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -18093,7 +18102,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H608" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -18119,7 +18128,7 @@
         <v>0.7</v>
       </c>
       <c r="H609" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -18129,7 +18138,13 @@
       <c r="B610" t="s">
         <v>615</v>
       </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
       <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
         <v>0</v>
       </c>
       <c r="F610">
@@ -18139,7 +18154,79 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="H610" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
         <v>616</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>0.35</v>
+      </c>
+      <c r="G611">
+        <v>0.65</v>
+      </c>
+      <c r="H611" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>617</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="G612">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H612" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>618</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>0.5</v>
+      </c>
+      <c r="G613">
+        <v>0.5</v>
+      </c>
+      <c r="H613" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
